--- a/03.指标管理/大宗/指标v1.0.3.xlsx
+++ b/03.指标管理/大宗/指标v1.0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类指标" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="出入金频次" sheetId="12" r:id="rId10"/>
     <sheet name="年龄段" sheetId="13" r:id="rId11"/>
     <sheet name="客户存活周期" sheetId="14" r:id="rId12"/>
+    <sheet name="新建表" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1172">
   <si>
     <t>机构数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6555,10 +6556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此表为需要新建表维护的风险时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account.tqs_khxx   和  account.tqs_zjzhdy关联取数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6611,10 +6608,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>纠纷中？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资金异动监控-清算异常记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6697,6 +6690,202 @@
   <si>
     <t>状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222******</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠纷客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠纷原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠纷状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务编码维护表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态-业务人员维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险说明-业务人员维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注-业务人员维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额出金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排查中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入金流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品种代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险事件录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同风险事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场经纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过注册信息gis计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此表为需要新建表维护的风险事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7370,35 +7559,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7412,7 +7590,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7420,15 +7616,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7452,13 +7639,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>147722</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
@@ -7777,99 +7964,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR126"/>
+  <dimension ref="A1:AQ126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG37" sqref="AG37"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.25" style="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="47" customWidth="1"/>
-    <col min="5" max="7" width="3" style="47" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="47" customWidth="1"/>
-    <col min="9" max="9" width="3" style="47" customWidth="1"/>
-    <col min="10" max="11" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="2" customWidth="1"/>
-    <col min="19" max="20" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="6.625" style="2" customWidth="1"/>
-    <col min="23" max="25" width="7.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="6.75" style="2" customWidth="1"/>
-    <col min="27" max="27" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" style="2" customWidth="1"/>
-    <col min="32" max="32" width="39.25" style="55" customWidth="1"/>
-    <col min="33" max="33" width="45.75" style="2" customWidth="1"/>
-    <col min="34" max="34" width="43" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="6.75" style="47" customWidth="1"/>
+    <col min="4" max="6" width="3" style="47" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="47" customWidth="1"/>
+    <col min="8" max="8" width="3" style="47" customWidth="1"/>
+    <col min="9" max="10" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="2" customWidth="1"/>
+    <col min="18" max="19" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.625" style="2" customWidth="1"/>
+    <col min="22" max="24" width="7.5" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.75" style="2" customWidth="1"/>
+    <col min="26" max="26" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="2" customWidth="1"/>
+    <col min="31" max="31" width="39.25" style="55" customWidth="1"/>
+    <col min="32" max="32" width="45.75" style="2" customWidth="1"/>
+    <col min="33" max="33" width="43" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="11" customFormat="1">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:43" s="11" customFormat="1">
+      <c r="A1" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="99" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="94" t="s">
+      <c r="C1" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="42" t="s">
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="O1" s="97" t="s">
+      <c r="N1" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="41" t="s">
+      <c r="O1" s="106"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="R1" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="94" t="s">
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="103" t="s">
         <v>262</v>
       </c>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="94" t="s">
+      <c r="X1" s="101"/>
+      <c r="Y1" s="103" t="s">
         <v>368</v>
       </c>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="41"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="41"/>
+      <c r="AI1" s="40"/>
       <c r="AJ1" s="40"/>
       <c r="AK1" s="40"/>
       <c r="AL1" s="40"/>
@@ -7878,105 +8064,104 @@
       <c r="AO1" s="40"/>
       <c r="AP1" s="40"/>
       <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-    </row>
-    <row r="2" spans="1:44" s="11" customFormat="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="44" t="s">
+    </row>
+    <row r="2" spans="1:43" s="11" customFormat="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="44" t="s">
         <v>321</v>
       </c>
+      <c r="D2" s="40" t="s">
+        <v>1</v>
+      </c>
       <c r="E2" s="40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
+      <c r="I2" s="40" t="s">
+        <v>258</v>
+      </c>
       <c r="J2" s="40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="L2" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="L2" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="M2" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="N2" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="P2" s="40" t="s">
-        <v>1102</v>
+      <c r="O2" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>309</v>
       </c>
       <c r="Q2" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="S2" s="40" t="s">
         <v>174</v>
       </c>
+      <c r="T2" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="U2" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="V2" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="V2" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="W2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="X2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="68" t="s">
+      <c r="Y2" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="Z2" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AA2" s="44" t="s">
         <v>1017</v>
       </c>
+      <c r="AB2" s="40" t="s">
+        <v>1016</v>
+      </c>
       <c r="AC2" s="40" t="s">
-        <v>1016</v>
+        <v>313</v>
       </c>
       <c r="AD2" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE2" s="40" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AF2" s="58" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AE2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AG2" s="58" t="s">
         <v>12</v>
       </c>
+      <c r="AI2" s="40"/>
       <c r="AJ2" s="40"/>
       <c r="AK2" s="40"/>
       <c r="AL2" s="40"/>
@@ -7985,347 +8170,340 @@
       <c r="AO2" s="40"/>
       <c r="AP2" s="40"/>
       <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-    </row>
-    <row r="3" spans="1:44">
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="36">
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="J3" s="47" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="60"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="60"/>
+      <c r="P3" s="48"/>
       <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="47"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="64"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="47"/>
       <c r="AA3" s="47"/>
       <c r="AB3" s="47"/>
       <c r="AC3" s="47"/>
       <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="55" t="s">
+      <c r="AE3" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AG3" s="64" t="s">
+      <c r="AF3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AH3" s="55" t="s">
+      <c r="AG3" s="55" t="s">
         <v>318</v>
       </c>
+      <c r="AI3" s="47"/>
       <c r="AJ3" s="47"/>
       <c r="AK3" s="47"/>
       <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="47"/>
       <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-    </row>
-    <row r="4" spans="1:44">
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="F4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="J4" s="47" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="46" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="O4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="46"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="47"/>
       <c r="AA4" s="47"/>
       <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AC4" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="55" t="s">
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="55" t="s">
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AJ4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="47"/>
       <c r="AK4" s="47"/>
       <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="47"/>
       <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-    </row>
-    <row r="5" spans="1:44">
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="N5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="48" t="s">
+      <c r="P5" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="46"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
       <c r="AA5" s="47"/>
       <c r="AB5" s="47"/>
       <c r="AC5" s="47"/>
       <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="55" t="s">
+      <c r="AE5" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="AG5" s="46" t="s">
+      <c r="AF5" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="AH5" s="55" t="s">
+      <c r="AG5" s="55" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:43">
       <c r="A6" s="39">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="47"/>
       <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="46" t="s">
+        <v>9</v>
+      </c>
       <c r="N6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="46" t="s">
         <v>308</v>
       </c>
+      <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="47"/>
       <c r="AA6" s="47"/>
       <c r="AB6" s="47"/>
       <c r="AC6" s="47"/>
       <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="55" t="s">
+      <c r="AE6" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="AG6" s="46" t="s">
+      <c r="AF6" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="AH6" s="55" t="s">
+      <c r="AG6" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:43">
       <c r="A7" s="39">
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="D7" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="47"/>
       <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="46" t="s">
+        <v>9</v>
+      </c>
       <c r="N7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="46" t="s">
-        <v>9</v>
-      </c>
+      <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="47"/>
       <c r="AA7" s="47"/>
       <c r="AB7" s="47"/>
       <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AF7" s="55" t="s">
+      <c r="AD7" s="47" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AE7" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="AG7" s="46" t="s">
+      <c r="AF7" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="AH7" s="55" t="s">
+      <c r="AG7" s="55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:43">
       <c r="A8" s="39">
         <v>6</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="F8" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="46" t="s">
+      <c r="L8" s="48"/>
+      <c r="M8" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="O8" s="60" t="s">
+      <c r="N8" s="60" t="s">
         <v>308</v>
       </c>
+      <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="47"/>
       <c r="AA8" s="47"/>
       <c r="AB8" s="47"/>
       <c r="AC8" s="47"/>
       <c r="AD8" s="47"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="55" t="s">
+      <c r="AE8" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AG8" s="46" t="s">
+      <c r="AF8" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="AH8" s="55" t="s">
+      <c r="AG8" s="55" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:43">
       <c r="A9" s="39">
         <v>7</v>
       </c>
       <c r="B9" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="47" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="47" t="s">
@@ -8337,1642 +8515,1614 @@
       <c r="G9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="48" t="s">
-        <v>10</v>
-      </c>
+      <c r="I9" s="47"/>
       <c r="J9" s="47"/>
       <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="46" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="60" t="s">
+      <c r="N9" s="60" t="s">
         <v>308</v>
       </c>
+      <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="46" t="s">
+      <c r="R9" s="46"/>
+      <c r="S9" s="47"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="48" t="s">
+      <c r="X9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Z9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="47"/>
       <c r="AA9" s="47"/>
       <c r="AB9" s="47"/>
       <c r="AC9" s="47"/>
       <c r="AD9" s="47"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="55" t="s">
+      <c r="AE9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AG9" s="46"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AN9" s="10"/>
-    </row>
-    <row r="10" spans="1:44" ht="12" customHeight="1">
+      <c r="AM9" s="10"/>
+    </row>
+    <row r="10" spans="1:43" ht="12" customHeight="1">
       <c r="A10" s="39">
         <v>8</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="46" t="s">
         <v>308</v>
       </c>
+      <c r="D10" s="47" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="47" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="46" t="s">
+      <c r="L10" s="48"/>
+      <c r="M10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="60" t="s">
+      <c r="N10" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="46" t="s">
+      <c r="R10" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="T10" s="47" t="s">
+      <c r="S10" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="48"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="46" t="s">
+      <c r="V10" s="48"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="AA10" s="47" t="s">
+      <c r="Z10" s="47" t="s">
         <v>39</v>
       </c>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="47"/>
       <c r="AC10" s="47"/>
       <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="55" t="s">
+      <c r="AE10" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="AG10" s="46"/>
-      <c r="AH10" s="55" t="s">
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AN10" s="10"/>
-    </row>
-    <row r="11" spans="1:44">
+      <c r="AM10" s="10"/>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="39">
         <v>9</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="46" t="s">
         <v>308</v>
       </c>
+      <c r="D11" s="47" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="47"/>
       <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="46" t="s">
+      <c r="L11" s="48"/>
+      <c r="M11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="60" t="s">
+      <c r="N11" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48" t="s">
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="47"/>
       <c r="AA11" s="47"/>
       <c r="AB11" s="47"/>
       <c r="AC11" s="47"/>
       <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="55" t="s">
+      <c r="AE11" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="55" t="s">
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="10"/>
-    </row>
-    <row r="12" spans="1:44" ht="38.25" customHeight="1">
+      <c r="AM11" s="10"/>
+    </row>
+    <row r="12" spans="1:43" ht="38.25" customHeight="1">
       <c r="A12" s="39">
         <v>10</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="47"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="46" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="60" t="s">
+      <c r="N12" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="P12" s="48"/>
       <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="47"/>
       <c r="AA12" s="47"/>
       <c r="AB12" s="47"/>
       <c r="AC12" s="47"/>
       <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AG12" s="65" t="s">
+      <c r="AF12" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="AH12" s="63" t="s">
+      <c r="AG12" s="63" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:43">
       <c r="A13" s="39">
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="D13" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="47"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="46" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="N13" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="P13" s="48"/>
       <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="47"/>
       <c r="AA13" s="47"/>
       <c r="AB13" s="47"/>
       <c r="AC13" s="47"/>
       <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AG13" s="46" t="s">
+      <c r="AF13" s="46" t="s">
         <v>1018</v>
       </c>
-      <c r="AH13" s="55"/>
-    </row>
-    <row r="14" spans="1:44">
+      <c r="AG13" s="55"/>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="39">
         <v>12</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="46" t="s">
+      <c r="C14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="D14" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="46" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="60" t="s">
+      <c r="N14" s="60" t="s">
         <v>308</v>
       </c>
+      <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="47"/>
       <c r="AA14" s="47"/>
       <c r="AB14" s="47"/>
       <c r="AC14" s="47"/>
       <c r="AD14" s="47"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="49" t="s">
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="AH14" s="56" t="s">
+      <c r="AG14" s="56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:43">
       <c r="A15" s="39">
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="D15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="47"/>
       <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="46" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="60" t="s">
+      <c r="N15" s="60" t="s">
         <v>9</v>
       </c>
+      <c r="P15" s="48"/>
       <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="47"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47" t="s">
+        <v>266</v>
+      </c>
       <c r="AB15" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="AC15" s="47" t="s">
-        <v>266</v>
-      </c>
+      <c r="AC15" s="47"/>
       <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="55" t="s">
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="55" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:43">
       <c r="A16" s="39">
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="46" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="60"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48" t="s">
+      <c r="N16" s="60"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="47"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
       <c r="AA16" s="47"/>
       <c r="AB16" s="47"/>
       <c r="AC16" s="47"/>
       <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="55" t="s">
+      <c r="AE16" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="55" t="s">
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="55" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:33">
       <c r="A17" s="39">
         <v>15</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="47"/>
       <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="46" t="s">
+      <c r="L17" s="48"/>
+      <c r="M17" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="N17" s="60" t="s">
         <v>9</v>
       </c>
+      <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="47"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
       <c r="AA17" s="47"/>
       <c r="AB17" s="47"/>
       <c r="AC17" s="47"/>
       <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="55" t="s">
+      <c r="AE17" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="55"/>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="55"/>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="39">
         <v>16</v>
       </c>
       <c r="B18" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="46" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="60" t="s">
+      <c r="N18" s="60" t="s">
         <v>9</v>
       </c>
+      <c r="P18" s="48"/>
       <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="47"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="47"/>
       <c r="AA18" s="47"/>
       <c r="AB18" s="47"/>
       <c r="AC18" s="47"/>
       <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AG18" s="46" t="s">
+      <c r="AF18" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="AH18" s="55" t="s">
+      <c r="AG18" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="15" customFormat="1">
+    <row r="19" spans="1:33" s="15" customFormat="1">
       <c r="A19" s="39">
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50" t="s">
         <v>9</v>
       </c>
+      <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="50"/>
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="49" t="s">
+      <c r="L19" s="51"/>
+      <c r="M19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="61" t="s">
+      <c r="N19" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="P19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="50" t="s">
+      <c r="R19" s="49"/>
+      <c r="S19" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="15" t="s">
+      <c r="T19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="51"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="49" t="s">
+      <c r="V19" s="51"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="49" t="s">
         <v>55</v>
       </c>
+      <c r="Z19" s="50"/>
       <c r="AA19" s="50"/>
       <c r="AB19" s="50"/>
       <c r="AC19" s="50"/>
       <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="56" t="s">
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:33">
       <c r="A20" s="39">
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="47"/>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="46" t="s">
+      <c r="L20" s="48"/>
+      <c r="M20" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="60" t="s">
+      <c r="N20" s="60" t="s">
         <v>266</v>
       </c>
+      <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47" t="s">
+      <c r="R20" s="46"/>
+      <c r="S20" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="W20" s="48"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="46" t="s">
+      <c r="V20" s="48"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="46" t="s">
         <v>55</v>
       </c>
+      <c r="Z20" s="47"/>
       <c r="AA20" s="47"/>
       <c r="AB20" s="47"/>
       <c r="AC20" s="47"/>
       <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="55" t="s">
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="55" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:33">
       <c r="A21" s="39">
         <v>19</v>
       </c>
       <c r="B21" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="F21" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="46" t="s">
+      <c r="L21" s="48"/>
+      <c r="M21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="60" t="s">
+      <c r="N21" s="60" t="s">
         <v>55</v>
       </c>
+      <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="47"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="47"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
       <c r="AA21" s="47"/>
       <c r="AB21" s="47"/>
       <c r="AC21" s="47"/>
       <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="55" t="s">
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="55" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:33">
       <c r="A22" s="39">
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="47"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="46" t="s">
+      <c r="L22" s="48"/>
+      <c r="M22" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="O22" s="60" t="s">
+      <c r="N22" s="60" t="s">
         <v>308</v>
       </c>
+      <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="47" t="s">
+      <c r="R22" s="46"/>
+      <c r="S22" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W22" s="48"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="46"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="47"/>
       <c r="AA22" s="47"/>
       <c r="AB22" s="47"/>
       <c r="AC22" s="47"/>
       <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="55" t="s">
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="55" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:33">
       <c r="A23" s="39">
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="46" t="s">
+      <c r="L23" s="48"/>
+      <c r="M23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47" t="s">
+      <c r="R23" s="46"/>
+      <c r="S23" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W23" s="48"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="46"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="47"/>
       <c r="AA23" s="47"/>
       <c r="AB23" s="47"/>
       <c r="AC23" s="47"/>
       <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="55" t="s">
+      <c r="AE23" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="55" t="s">
+      <c r="AF23" s="46"/>
+      <c r="AG23" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:33">
       <c r="A24" s="39">
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="46" t="s">
+      <c r="L24" s="48"/>
+      <c r="M24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47" t="s">
+      <c r="R24" s="46"/>
+      <c r="S24" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="48"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="46"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="47"/>
       <c r="AA24" s="47"/>
       <c r="AB24" s="47"/>
       <c r="AC24" s="47"/>
       <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="66" t="s">
+      <c r="AF24" s="46"/>
+      <c r="AG24" s="66" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:33">
       <c r="A25" s="39">
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47" t="s">
+      <c r="C25" s="46"/>
+      <c r="D25" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="46" t="s">
+      <c r="L25" s="48"/>
+      <c r="M25" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="47" t="s">
+      <c r="R25" s="46"/>
+      <c r="S25" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W25" s="48"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="46"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="47"/>
       <c r="AB25" s="47"/>
       <c r="AC25" s="47"/>
       <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="55" t="s">
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="55" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="37" customFormat="1">
+    <row r="26" spans="1:33" s="37" customFormat="1">
       <c r="A26" s="39">
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47" t="s">
+      <c r="C26" s="46"/>
+      <c r="D26" s="47" t="s">
         <v>9</v>
       </c>
+      <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="47"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="47" t="s">
+      <c r="R26" s="46"/>
+      <c r="S26" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="2"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="46"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="47"/>
       <c r="AA26" s="47"/>
       <c r="AB26" s="47"/>
       <c r="AC26" s="47"/>
       <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="55" t="s">
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="55" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:33">
       <c r="A27" s="39">
         <v>25</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="47" t="s">
         <v>308</v>
       </c>
-      <c r="I27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="47"/>
       <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="46" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="O27" s="60" t="s">
+      <c r="N27" s="60" t="s">
         <v>308</v>
       </c>
+      <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="47"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
       <c r="AA27" s="47"/>
       <c r="AB27" s="47"/>
       <c r="AC27" s="47"/>
       <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="55"/>
-    </row>
-    <row r="28" spans="1:34">
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="55"/>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="39">
         <v>26</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="47"/>
       <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="46" t="s">
+      <c r="L28" s="48"/>
+      <c r="M28" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="60" t="s">
+      <c r="N28" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="47"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="47"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="47"/>
       <c r="AA28" s="47"/>
       <c r="AB28" s="47"/>
       <c r="AC28" s="47"/>
       <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AG28" s="46"/>
-      <c r="AH28" s="55" t="s">
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="55" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:33">
       <c r="A29" s="39">
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="46" t="s">
+      <c r="L29" s="48"/>
+      <c r="M29" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="60" t="s">
+      <c r="N29" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="47" t="s">
+      <c r="R29" s="46"/>
+      <c r="S29" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="W29" s="48"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="46"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="47"/>
       <c r="AA29" s="47"/>
       <c r="AB29" s="47"/>
       <c r="AC29" s="47"/>
       <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="55" t="s">
+      <c r="AF29" s="46"/>
+      <c r="AG29" s="55" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:33">
       <c r="A30" s="39">
         <v>28</v>
       </c>
       <c r="B30" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="47"/>
       <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="46" t="s">
+      <c r="L30" s="48"/>
+      <c r="M30" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="60" t="s">
+      <c r="N30" s="60" t="s">
         <v>10</v>
       </c>
+      <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="47" t="s">
+      <c r="R30" s="46"/>
+      <c r="S30" s="47" t="s">
         <v>39</v>
       </c>
+      <c r="T30" s="47"/>
       <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="46"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="47"/>
       <c r="AA30" s="47"/>
       <c r="AB30" s="47"/>
       <c r="AC30" s="47"/>
       <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="55" t="s">
+      <c r="AF30" s="46"/>
+      <c r="AG30" s="55" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:33">
       <c r="A31" s="39">
         <v>29</v>
       </c>
       <c r="B31" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="46" t="s">
+      <c r="C31" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="D31" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="47"/>
       <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="46" t="s">
+      <c r="L31" s="48"/>
+      <c r="M31" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O31" s="60" t="s">
+      <c r="N31" s="60" t="s">
         <v>9</v>
       </c>
+      <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="47"/>
       <c r="T31" s="47"/>
       <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47" t="s">
+      <c r="V31" s="48"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47" t="s">
         <v>266</v>
       </c>
+      <c r="AB31" s="47"/>
       <c r="AC31" s="47"/>
       <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="55" t="s">
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="55" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:33">
       <c r="A32" s="39">
         <v>30</v>
       </c>
       <c r="B32" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="46" t="s">
+      <c r="C32" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="D32" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="47"/>
       <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="46" t="s">
+      <c r="L32" s="48"/>
+      <c r="M32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O32" s="60" t="s">
+      <c r="N32" s="60" t="s">
         <v>9</v>
       </c>
+      <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="47"/>
       <c r="T32" s="47"/>
       <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47" t="s">
+      <c r="V32" s="48"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47" t="s">
         <v>266</v>
       </c>
+      <c r="AB32" s="47"/>
       <c r="AC32" s="47"/>
       <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AG32" s="46"/>
-      <c r="AH32" s="55" t="s">
+      <c r="AF32" s="46"/>
+      <c r="AG32" s="55" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:33">
       <c r="A33" s="36">
         <v>31</v>
       </c>
-      <c r="B33" s="107" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="52" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>1105</v>
-      </c>
+      <c r="B33" s="92" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="53"/>
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
       <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="57" t="s">
+      <c r="M33" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="O33" s="62" t="s">
-        <v>1105</v>
-      </c>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="57" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S33" s="52"/>
+      <c r="N33" s="62" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="57" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R33" s="52"/>
+      <c r="S33" s="53"/>
       <c r="T33" s="53"/>
       <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="53"/>
       <c r="Z33" s="53"/>
       <c r="AA33" s="53"/>
       <c r="AB33" s="53"/>
       <c r="AC33" s="53"/>
       <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
+      <c r="AE33" s="57"/>
       <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="54" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+      <c r="AG33" s="54" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="89"/>
+      <c r="AC34" s="47"/>
       <c r="AD34" s="47"/>
       <c r="AE34" s="47"/>
-      <c r="AF34" s="47"/>
-    </row>
-    <row r="35" spans="1:34">
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="89"/>
+      <c r="AC35" s="47"/>
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-    </row>
-    <row r="36" spans="1:34">
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="89"/>
+      <c r="AC36" s="47"/>
       <c r="AD36" s="47"/>
       <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-    </row>
-    <row r="37" spans="1:34">
+    </row>
+    <row r="37" spans="1:33">
       <c r="B37" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="12"/>
+      <c r="AC37" s="47"/>
       <c r="AD37" s="47"/>
       <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-    </row>
-    <row r="38" spans="1:34">
-      <c r="D38" s="47" t="s">
+    </row>
+    <row r="38" spans="1:33">
+      <c r="C38" s="47" t="s">
         <v>307</v>
       </c>
+      <c r="AC38" s="47"/>
       <c r="AD38" s="47"/>
       <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-    </row>
-    <row r="39" spans="1:34">
+    </row>
+    <row r="39" spans="1:33">
+      <c r="AC39" s="47"/>
       <c r="AD39" s="47"/>
       <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-    </row>
-    <row r="40" spans="1:34">
+    </row>
+    <row r="40" spans="1:33">
+      <c r="AC40" s="47"/>
       <c r="AD40" s="47"/>
       <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-    </row>
-    <row r="41" spans="1:34">
+    </row>
+    <row r="41" spans="1:33">
+      <c r="AC41" s="47"/>
       <c r="AD41" s="47"/>
       <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-    </row>
-    <row r="42" spans="1:34">
+    </row>
+    <row r="42" spans="1:33">
+      <c r="AC42" s="47"/>
       <c r="AD42" s="47"/>
       <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-    </row>
-    <row r="43" spans="1:34">
+    </row>
+    <row r="43" spans="1:33">
+      <c r="AC43" s="47"/>
       <c r="AD43" s="47"/>
       <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-    </row>
-    <row r="44" spans="1:34">
+    </row>
+    <row r="44" spans="1:33">
+      <c r="AC44" s="47"/>
       <c r="AD44" s="47"/>
       <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-    </row>
-    <row r="45" spans="1:34">
+    </row>
+    <row r="45" spans="1:33">
+      <c r="AC45" s="47"/>
       <c r="AD45" s="47"/>
       <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-    </row>
-    <row r="46" spans="1:34">
+    </row>
+    <row r="46" spans="1:33">
+      <c r="AC46" s="47"/>
       <c r="AD46" s="47"/>
       <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-    </row>
-    <row r="47" spans="1:34">
+    </row>
+    <row r="47" spans="1:33">
+      <c r="AC47" s="47"/>
       <c r="AD47" s="47"/>
       <c r="AE47" s="47"/>
-      <c r="AF47" s="47"/>
-    </row>
-    <row r="48" spans="1:34">
+    </row>
+    <row r="48" spans="1:33">
+      <c r="AC48" s="47"/>
       <c r="AD48" s="47"/>
       <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-    </row>
-    <row r="49" spans="30:32">
+    </row>
+    <row r="49" spans="29:31">
+      <c r="AC49" s="47"/>
       <c r="AD49" s="47"/>
       <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-    </row>
-    <row r="50" spans="30:32">
+    </row>
+    <row r="50" spans="29:31">
+      <c r="AC50" s="47"/>
       <c r="AD50" s="47"/>
       <c r="AE50" s="47"/>
-      <c r="AF50" s="47"/>
-    </row>
-    <row r="51" spans="30:32">
+    </row>
+    <row r="51" spans="29:31">
+      <c r="AC51" s="47"/>
       <c r="AD51" s="47"/>
       <c r="AE51" s="47"/>
-      <c r="AF51" s="47"/>
-    </row>
-    <row r="52" spans="30:32">
+    </row>
+    <row r="52" spans="29:31">
+      <c r="AC52" s="47"/>
       <c r="AD52" s="47"/>
       <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-    </row>
-    <row r="53" spans="30:32">
+    </row>
+    <row r="53" spans="29:31">
+      <c r="AC53" s="47"/>
       <c r="AD53" s="47"/>
       <c r="AE53" s="47"/>
-      <c r="AF53" s="47"/>
-    </row>
-    <row r="54" spans="30:32">
+    </row>
+    <row r="54" spans="29:31">
+      <c r="AC54" s="47"/>
       <c r="AD54" s="47"/>
       <c r="AE54" s="47"/>
-      <c r="AF54" s="47"/>
-    </row>
-    <row r="55" spans="30:32">
+    </row>
+    <row r="55" spans="29:31">
+      <c r="AC55" s="47"/>
       <c r="AD55" s="47"/>
       <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-    </row>
-    <row r="56" spans="30:32">
+    </row>
+    <row r="56" spans="29:31">
+      <c r="AC56" s="47"/>
       <c r="AD56" s="47"/>
       <c r="AE56" s="47"/>
-      <c r="AF56" s="47"/>
-    </row>
-    <row r="57" spans="30:32">
+    </row>
+    <row r="57" spans="29:31">
+      <c r="AC57" s="47"/>
       <c r="AD57" s="47"/>
       <c r="AE57" s="47"/>
-      <c r="AF57" s="47"/>
-    </row>
-    <row r="58" spans="30:32">
+    </row>
+    <row r="58" spans="29:31">
+      <c r="AC58" s="47"/>
       <c r="AD58" s="47"/>
       <c r="AE58" s="47"/>
-      <c r="AF58" s="47"/>
-    </row>
-    <row r="59" spans="30:32">
+    </row>
+    <row r="59" spans="29:31">
+      <c r="AC59" s="47"/>
       <c r="AD59" s="47"/>
       <c r="AE59" s="47"/>
-      <c r="AF59" s="47"/>
-    </row>
-    <row r="60" spans="30:32">
+    </row>
+    <row r="60" spans="29:31">
+      <c r="AC60" s="47"/>
       <c r="AD60" s="47"/>
       <c r="AE60" s="47"/>
-      <c r="AF60" s="47"/>
-    </row>
-    <row r="61" spans="30:32">
+    </row>
+    <row r="61" spans="29:31">
+      <c r="AC61" s="47"/>
       <c r="AD61" s="47"/>
       <c r="AE61" s="47"/>
-      <c r="AF61" s="47"/>
-    </row>
-    <row r="62" spans="30:32">
+    </row>
+    <row r="62" spans="29:31">
+      <c r="AC62" s="47"/>
       <c r="AD62" s="47"/>
       <c r="AE62" s="47"/>
-      <c r="AF62" s="47"/>
-    </row>
-    <row r="63" spans="30:32">
+    </row>
+    <row r="63" spans="29:31">
+      <c r="AC63" s="47"/>
       <c r="AD63" s="47"/>
       <c r="AE63" s="47"/>
-      <c r="AF63" s="47"/>
-    </row>
-    <row r="64" spans="30:32">
+    </row>
+    <row r="64" spans="29:31">
+      <c r="AC64" s="47"/>
       <c r="AD64" s="47"/>
       <c r="AE64" s="47"/>
-      <c r="AF64" s="47"/>
-    </row>
-    <row r="65" spans="30:32">
+    </row>
+    <row r="65" spans="29:31">
+      <c r="AC65" s="47"/>
       <c r="AD65" s="47"/>
       <c r="AE65" s="47"/>
-      <c r="AF65" s="47"/>
-    </row>
-    <row r="66" spans="30:32">
+    </row>
+    <row r="66" spans="29:31">
+      <c r="AC66" s="47"/>
       <c r="AD66" s="47"/>
       <c r="AE66" s="47"/>
-      <c r="AF66" s="47"/>
-    </row>
-    <row r="67" spans="30:32">
+    </row>
+    <row r="67" spans="29:31">
+      <c r="AC67" s="47"/>
       <c r="AD67" s="47"/>
       <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-    </row>
-    <row r="68" spans="30:32">
+    </row>
+    <row r="68" spans="29:31">
+      <c r="AC68" s="47"/>
       <c r="AD68" s="47"/>
       <c r="AE68" s="47"/>
-      <c r="AF68" s="47"/>
-    </row>
-    <row r="69" spans="30:32">
+    </row>
+    <row r="69" spans="29:31">
+      <c r="AC69" s="47"/>
       <c r="AD69" s="47"/>
       <c r="AE69" s="47"/>
-      <c r="AF69" s="47"/>
-    </row>
-    <row r="70" spans="30:32">
+    </row>
+    <row r="70" spans="29:31">
+      <c r="AC70" s="47"/>
       <c r="AD70" s="47"/>
       <c r="AE70" s="47"/>
-      <c r="AF70" s="47"/>
-    </row>
-    <row r="71" spans="30:32">
+    </row>
+    <row r="71" spans="29:31">
+      <c r="AC71" s="47"/>
       <c r="AD71" s="47"/>
       <c r="AE71" s="47"/>
-      <c r="AF71" s="47"/>
-    </row>
-    <row r="72" spans="30:32">
+    </row>
+    <row r="72" spans="29:31">
+      <c r="AC72" s="47"/>
       <c r="AD72" s="47"/>
       <c r="AE72" s="47"/>
-      <c r="AF72" s="47"/>
-    </row>
-    <row r="73" spans="30:32">
+    </row>
+    <row r="73" spans="29:31">
+      <c r="AC73" s="47"/>
       <c r="AD73" s="47"/>
       <c r="AE73" s="47"/>
-      <c r="AF73" s="47"/>
-    </row>
-    <row r="74" spans="30:32">
+    </row>
+    <row r="74" spans="29:31">
+      <c r="AC74" s="47"/>
       <c r="AD74" s="47"/>
       <c r="AE74" s="47"/>
-      <c r="AF74" s="47"/>
-    </row>
-    <row r="75" spans="30:32">
+    </row>
+    <row r="75" spans="29:31">
+      <c r="AC75" s="47"/>
       <c r="AD75" s="47"/>
       <c r="AE75" s="47"/>
-      <c r="AF75" s="47"/>
-    </row>
-    <row r="76" spans="30:32">
+    </row>
+    <row r="76" spans="29:31">
+      <c r="AC76" s="47"/>
       <c r="AD76" s="47"/>
       <c r="AE76" s="47"/>
-      <c r="AF76" s="47"/>
-    </row>
-    <row r="77" spans="30:32">
+    </row>
+    <row r="77" spans="29:31">
+      <c r="AC77" s="47"/>
       <c r="AD77" s="47"/>
       <c r="AE77" s="47"/>
-      <c r="AF77" s="47"/>
-    </row>
-    <row r="78" spans="30:32">
+    </row>
+    <row r="78" spans="29:31">
+      <c r="AC78" s="47"/>
       <c r="AD78" s="47"/>
       <c r="AE78" s="47"/>
-      <c r="AF78" s="47"/>
-    </row>
-    <row r="79" spans="30:32">
+    </row>
+    <row r="79" spans="29:31">
+      <c r="AC79" s="47"/>
       <c r="AD79" s="47"/>
       <c r="AE79" s="47"/>
-      <c r="AF79" s="47"/>
-    </row>
-    <row r="80" spans="30:32">
+    </row>
+    <row r="80" spans="29:31">
+      <c r="AC80" s="47"/>
       <c r="AD80" s="47"/>
       <c r="AE80" s="47"/>
-      <c r="AF80" s="47"/>
-    </row>
-    <row r="81" spans="30:32">
+    </row>
+    <row r="81" spans="29:31">
+      <c r="AC81" s="47"/>
       <c r="AD81" s="47"/>
       <c r="AE81" s="47"/>
-      <c r="AF81" s="47"/>
-    </row>
-    <row r="82" spans="30:32">
+    </row>
+    <row r="82" spans="29:31">
+      <c r="AC82" s="47"/>
       <c r="AD82" s="47"/>
       <c r="AE82" s="47"/>
-      <c r="AF82" s="47"/>
-    </row>
-    <row r="83" spans="30:32">
+    </row>
+    <row r="83" spans="29:31">
+      <c r="AC83" s="47"/>
       <c r="AD83" s="47"/>
       <c r="AE83" s="47"/>
-      <c r="AF83" s="47"/>
-    </row>
-    <row r="84" spans="30:32">
+    </row>
+    <row r="84" spans="29:31">
+      <c r="AC84" s="47"/>
       <c r="AD84" s="47"/>
       <c r="AE84" s="47"/>
-      <c r="AF84" s="47"/>
-    </row>
-    <row r="85" spans="30:32">
+    </row>
+    <row r="85" spans="29:31">
+      <c r="AC85" s="47"/>
       <c r="AD85" s="47"/>
       <c r="AE85" s="47"/>
-      <c r="AF85" s="47"/>
-    </row>
-    <row r="86" spans="30:32">
+    </row>
+    <row r="86" spans="29:31">
+      <c r="AC86" s="47"/>
       <c r="AD86" s="47"/>
       <c r="AE86" s="47"/>
-      <c r="AF86" s="47"/>
-    </row>
-    <row r="87" spans="30:32">
+    </row>
+    <row r="87" spans="29:31">
+      <c r="AC87" s="47"/>
       <c r="AD87" s="47"/>
       <c r="AE87" s="47"/>
-      <c r="AF87" s="47"/>
-    </row>
-    <row r="88" spans="30:32">
+    </row>
+    <row r="88" spans="29:31">
+      <c r="AC88" s="47"/>
       <c r="AD88" s="47"/>
       <c r="AE88" s="47"/>
-      <c r="AF88" s="47"/>
-    </row>
-    <row r="89" spans="30:32">
+    </row>
+    <row r="89" spans="29:31">
+      <c r="AC89" s="47"/>
       <c r="AD89" s="47"/>
       <c r="AE89" s="47"/>
-      <c r="AF89" s="47"/>
-    </row>
-    <row r="90" spans="30:32">
+    </row>
+    <row r="90" spans="29:31">
+      <c r="AC90" s="47"/>
       <c r="AD90" s="47"/>
       <c r="AE90" s="47"/>
-      <c r="AF90" s="47"/>
-    </row>
-    <row r="91" spans="30:32">
+    </row>
+    <row r="91" spans="29:31">
+      <c r="AC91" s="47"/>
       <c r="AD91" s="47"/>
       <c r="AE91" s="47"/>
-      <c r="AF91" s="47"/>
-    </row>
-    <row r="92" spans="30:32">
+    </row>
+    <row r="92" spans="29:31">
+      <c r="AC92" s="47"/>
       <c r="AD92" s="47"/>
       <c r="AE92" s="47"/>
-      <c r="AF92" s="47"/>
-    </row>
-    <row r="93" spans="30:32">
+    </row>
+    <row r="93" spans="29:31">
+      <c r="AC93" s="47"/>
       <c r="AD93" s="47"/>
       <c r="AE93" s="47"/>
-      <c r="AF93" s="47"/>
-    </row>
-    <row r="94" spans="30:32">
+    </row>
+    <row r="94" spans="29:31">
+      <c r="AC94" s="47"/>
       <c r="AD94" s="47"/>
       <c r="AE94" s="47"/>
-      <c r="AF94" s="47"/>
-    </row>
-    <row r="95" spans="30:32">
+    </row>
+    <row r="95" spans="29:31">
+      <c r="AC95" s="47"/>
       <c r="AD95" s="47"/>
       <c r="AE95" s="47"/>
-      <c r="AF95" s="47"/>
-    </row>
-    <row r="96" spans="30:32">
+    </row>
+    <row r="96" spans="29:31">
+      <c r="AC96" s="47"/>
       <c r="AD96" s="47"/>
       <c r="AE96" s="47"/>
-      <c r="AF96" s="47"/>
-    </row>
-    <row r="97" spans="30:32">
+    </row>
+    <row r="97" spans="29:31">
+      <c r="AC97" s="47"/>
       <c r="AD97" s="47"/>
       <c r="AE97" s="47"/>
-      <c r="AF97" s="47"/>
-    </row>
-    <row r="98" spans="30:32">
+    </row>
+    <row r="98" spans="29:31">
+      <c r="AC98" s="47"/>
       <c r="AD98" s="47"/>
       <c r="AE98" s="47"/>
-      <c r="AF98" s="47"/>
-    </row>
-    <row r="99" spans="30:32">
+    </row>
+    <row r="99" spans="29:31">
+      <c r="AC99" s="47"/>
       <c r="AD99" s="47"/>
       <c r="AE99" s="47"/>
-      <c r="AF99" s="47"/>
-    </row>
-    <row r="100" spans="30:32">
+    </row>
+    <row r="100" spans="29:31">
+      <c r="AC100" s="47"/>
       <c r="AD100" s="47"/>
       <c r="AE100" s="47"/>
-      <c r="AF100" s="47"/>
-    </row>
-    <row r="101" spans="30:32">
+    </row>
+    <row r="101" spans="29:31">
+      <c r="AC101" s="47"/>
       <c r="AD101" s="47"/>
       <c r="AE101" s="47"/>
-      <c r="AF101" s="47"/>
-    </row>
-    <row r="102" spans="30:32">
+    </row>
+    <row r="102" spans="29:31">
+      <c r="AC102" s="47"/>
       <c r="AD102" s="47"/>
       <c r="AE102" s="47"/>
-      <c r="AF102" s="47"/>
-    </row>
-    <row r="103" spans="30:32">
+    </row>
+    <row r="103" spans="29:31">
+      <c r="AC103" s="47"/>
       <c r="AD103" s="47"/>
       <c r="AE103" s="47"/>
-      <c r="AF103" s="47"/>
-    </row>
-    <row r="104" spans="30:32">
+    </row>
+    <row r="104" spans="29:31">
+      <c r="AC104" s="47"/>
       <c r="AD104" s="47"/>
       <c r="AE104" s="47"/>
-      <c r="AF104" s="47"/>
-    </row>
-    <row r="105" spans="30:32">
+    </row>
+    <row r="105" spans="29:31">
+      <c r="AC105" s="47"/>
       <c r="AD105" s="47"/>
       <c r="AE105" s="47"/>
-      <c r="AF105" s="47"/>
-    </row>
-    <row r="106" spans="30:32">
+    </row>
+    <row r="106" spans="29:31">
+      <c r="AC106" s="47"/>
       <c r="AD106" s="47"/>
       <c r="AE106" s="47"/>
-      <c r="AF106" s="47"/>
-    </row>
-    <row r="107" spans="30:32">
+    </row>
+    <row r="107" spans="29:31">
+      <c r="AC107" s="47"/>
       <c r="AD107" s="47"/>
       <c r="AE107" s="47"/>
-      <c r="AF107" s="47"/>
-    </row>
-    <row r="108" spans="30:32">
+    </row>
+    <row r="108" spans="29:31">
+      <c r="AC108" s="47"/>
       <c r="AD108" s="47"/>
       <c r="AE108" s="47"/>
-      <c r="AF108" s="47"/>
-    </row>
-    <row r="109" spans="30:32">
+    </row>
+    <row r="109" spans="29:31">
+      <c r="AC109" s="47"/>
       <c r="AD109" s="47"/>
       <c r="AE109" s="47"/>
-      <c r="AF109" s="47"/>
-    </row>
-    <row r="110" spans="30:32">
+    </row>
+    <row r="110" spans="29:31">
+      <c r="AC110" s="47"/>
       <c r="AD110" s="47"/>
       <c r="AE110" s="47"/>
-      <c r="AF110" s="47"/>
-    </row>
-    <row r="111" spans="30:32">
+    </row>
+    <row r="111" spans="29:31">
+      <c r="AC111" s="47"/>
       <c r="AD111" s="47"/>
       <c r="AE111" s="47"/>
-      <c r="AF111" s="47"/>
-    </row>
-    <row r="112" spans="30:32">
+    </row>
+    <row r="112" spans="29:31">
+      <c r="AC112" s="47"/>
       <c r="AD112" s="47"/>
       <c r="AE112" s="47"/>
-      <c r="AF112" s="47"/>
-    </row>
-    <row r="113" spans="30:32">
+    </row>
+    <row r="113" spans="29:31">
+      <c r="AC113" s="47"/>
       <c r="AD113" s="47"/>
       <c r="AE113" s="47"/>
-      <c r="AF113" s="47"/>
-    </row>
-    <row r="114" spans="30:32">
+    </row>
+    <row r="114" spans="29:31">
+      <c r="AC114" s="47"/>
       <c r="AD114" s="47"/>
       <c r="AE114" s="47"/>
-      <c r="AF114" s="47"/>
-    </row>
-    <row r="115" spans="30:32">
+    </row>
+    <row r="115" spans="29:31">
+      <c r="AC115" s="47"/>
       <c r="AD115" s="47"/>
       <c r="AE115" s="47"/>
-      <c r="AF115" s="47"/>
-    </row>
-    <row r="116" spans="30:32">
+    </row>
+    <row r="116" spans="29:31">
+      <c r="AC116" s="47"/>
       <c r="AD116" s="47"/>
       <c r="AE116" s="47"/>
-      <c r="AF116" s="47"/>
-    </row>
-    <row r="117" spans="30:32">
+    </row>
+    <row r="117" spans="29:31">
+      <c r="AC117" s="47"/>
       <c r="AD117" s="47"/>
       <c r="AE117" s="47"/>
-      <c r="AF117" s="47"/>
-    </row>
-    <row r="118" spans="30:32">
+    </row>
+    <row r="118" spans="29:31">
+      <c r="AC118" s="47"/>
       <c r="AD118" s="47"/>
       <c r="AE118" s="47"/>
-      <c r="AF118" s="47"/>
-    </row>
-    <row r="119" spans="30:32">
+    </row>
+    <row r="119" spans="29:31">
+      <c r="AC119" s="47"/>
       <c r="AD119" s="47"/>
       <c r="AE119" s="47"/>
-      <c r="AF119" s="47"/>
-    </row>
-    <row r="120" spans="30:32">
+    </row>
+    <row r="120" spans="29:31">
+      <c r="AC120" s="47"/>
       <c r="AD120" s="47"/>
       <c r="AE120" s="47"/>
-      <c r="AF120" s="47"/>
-    </row>
-    <row r="121" spans="30:32">
+    </row>
+    <row r="121" spans="29:31">
+      <c r="AC121" s="47"/>
       <c r="AD121" s="47"/>
       <c r="AE121" s="47"/>
-      <c r="AF121" s="47"/>
-    </row>
-    <row r="122" spans="30:32">
+    </row>
+    <row r="122" spans="29:31">
+      <c r="AC122" s="47"/>
       <c r="AD122" s="47"/>
       <c r="AE122" s="47"/>
-      <c r="AF122" s="47"/>
-    </row>
-    <row r="123" spans="30:32">
+    </row>
+    <row r="123" spans="29:31">
+      <c r="AC123" s="47"/>
       <c r="AD123" s="47"/>
       <c r="AE123" s="47"/>
-      <c r="AF123" s="47"/>
-    </row>
-    <row r="124" spans="30:32">
+    </row>
+    <row r="124" spans="29:31">
+      <c r="AC124" s="47"/>
       <c r="AD124" s="47"/>
       <c r="AE124" s="47"/>
-      <c r="AF124" s="47"/>
-    </row>
-    <row r="125" spans="30:32">
+    </row>
+    <row r="125" spans="29:31">
+      <c r="AC125" s="47"/>
       <c r="AD125" s="47"/>
       <c r="AE125" s="47"/>
-      <c r="AF125" s="47"/>
-    </row>
-    <row r="126" spans="30:32">
+    </row>
+    <row r="126" spans="29:31">
+      <c r="AC126" s="47"/>
       <c r="AD126" s="47"/>
       <c r="AE126" s="47"/>
-      <c r="AF126" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="R1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9986,7 +10136,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10049,30 +10199,30 @@
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="B6" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -10086,7 +10236,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="H10:I10"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10096,37 +10246,412 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="B6" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="6.75" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="8.125" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="B2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="93" customFormat="1" ht="42.75">
+      <c r="B11" s="93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="94" t="s">
+        <v>300</v>
+      </c>
+      <c r="M11" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="N11" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="O11" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="P11" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q11" s="93" t="s">
+        <v>1143</v>
+      </c>
+      <c r="R11" s="93" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S11" s="93" t="s">
+        <v>1145</v>
+      </c>
+      <c r="W11" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="X11" s="93" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" s="95">
+        <v>43034.396087962959</v>
+      </c>
+      <c r="C12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G12" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="94" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94">
+        <v>1</v>
+      </c>
+      <c r="N12" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="O12" s="96" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36.75" customHeight="1"/>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -10188,7 +10713,7 @@
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="59.25" customHeight="1">
       <c r="A3" s="26"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="109" t="s">
         <v>279</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -10215,7 +10740,7 @@
     </row>
     <row r="4" spans="1:9" s="13" customFormat="1" ht="28.5">
       <c r="A4" s="28"/>
-      <c r="B4" s="106"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="16" t="s">
         <v>82</v>
       </c>
@@ -10230,7 +10755,7 @@
     </row>
     <row r="5" spans="1:9" s="13" customFormat="1" ht="57">
       <c r="A5" s="28"/>
-      <c r="B5" s="106"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
@@ -10255,7 +10780,7 @@
     </row>
     <row r="6" spans="1:9" s="13" customFormat="1" ht="213.75">
       <c r="A6" s="28"/>
-      <c r="B6" s="106"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="16" t="s">
         <v>83</v>
       </c>
@@ -10280,7 +10805,7 @@
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1" ht="128.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="106"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
@@ -10303,7 +10828,7 @@
     </row>
     <row r="8" spans="1:9" s="13" customFormat="1" ht="114">
       <c r="A8" s="28"/>
-      <c r="B8" s="106"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="16" t="s">
         <v>88</v>
       </c>
@@ -10326,7 +10851,7 @@
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" ht="114">
       <c r="A9" s="28"/>
-      <c r="B9" s="106"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="16" t="s">
         <v>90</v>
       </c>
@@ -10349,7 +10874,7 @@
     </row>
     <row r="10" spans="1:9" s="30" customFormat="1" ht="28.5">
       <c r="A10" s="29"/>
-      <c r="B10" s="106"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
@@ -10373,7 +10898,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.5">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="109" t="s">
         <v>283</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -10399,7 +10924,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
-      <c r="B12" s="106"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="16" t="s">
         <v>98</v>
       </c>
@@ -10423,7 +10948,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="42.75">
-      <c r="B13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="16" t="s">
         <v>101</v>
       </c>
@@ -10447,7 +10972,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="42.75">
-      <c r="B14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="16" t="s">
         <v>104</v>
       </c>
@@ -10471,7 +10996,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="22" t="s">
         <v>21</v>
       </c>
@@ -10495,7 +11020,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="128.25">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="109" t="s">
         <v>287</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -10521,7 +11046,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="114">
-      <c r="B17" s="106"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
@@ -10545,7 +11070,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="128.25">
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="16" t="s">
         <v>115</v>
       </c>
@@ -10569,7 +11094,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="42.75">
-      <c r="B19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="16" t="s">
         <v>19</v>
       </c>
@@ -10593,7 +11118,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="28.5">
-      <c r="B20" s="106"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="16" t="s">
         <v>119</v>
       </c>
@@ -10617,7 +11142,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="57">
-      <c r="B21" s="106"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="16" t="s">
         <v>122</v>
       </c>
@@ -10641,7 +11166,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="42.75">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="109" t="s">
         <v>289</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -10667,7 +11192,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="57">
-      <c r="B23" s="106"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="16" t="s">
         <v>128</v>
       </c>
@@ -10691,7 +11216,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="42.75">
-      <c r="B24" s="106"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="16" t="s">
         <v>25</v>
       </c>
@@ -10715,7 +11240,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="42.75">
-      <c r="B25" s="106"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="16" t="s">
         <v>26</v>
       </c>
@@ -10739,7 +11264,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="42.75">
-      <c r="B26" s="106"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="16" t="s">
         <v>27</v>
       </c>
@@ -10763,7 +11288,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="28.5">
-      <c r="B27" s="106"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="16" t="s">
         <v>138</v>
       </c>
@@ -10787,7 +11312,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="42.75">
-      <c r="B28" s="106"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="16" t="s">
         <v>28</v>
       </c>
@@ -10811,7 +11336,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="42.75">
-      <c r="B29" s="106"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="16" t="s">
         <v>145</v>
       </c>
@@ -10835,7 +11360,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="28.5">
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="109" t="s">
         <v>290</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -10861,7 +11386,7 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="106"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="16" t="s">
         <v>30</v>
       </c>
@@ -10883,7 +11408,7 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="106"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="16" t="s">
         <v>31</v>
       </c>
@@ -10905,7 +11430,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="28.5">
-      <c r="B33" s="106"/>
+      <c r="B33" s="109"/>
       <c r="C33" s="16" t="s">
         <v>32</v>
       </c>
@@ -10927,7 +11452,7 @@
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="108" t="s">
         <v>291</v>
       </c>
       <c r="C34" s="16" t="s">
@@ -10947,7 +11472,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="105"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="16" t="s">
         <v>34</v>
       </c>
@@ -11011,7 +11536,7 @@
         <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11955,7 +12480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -11966,202 +12491,202 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B2" s="90" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5">
+      <c r="B3" s="90" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B2" s="108" t="s">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B4" s="90" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5">
-      <c r="B3" s="108" t="s">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B5" s="90" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B4" s="108" t="s">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B6" s="90" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B5" s="108" t="s">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B7" s="90" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B6" s="108" t="s">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B8" s="90" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B7" s="108" t="s">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B9" s="90" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B8" s="108" t="s">
+    <row r="10" spans="1:2" ht="16.5">
+      <c r="B10" s="90" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B9" s="108" t="s">
+    <row r="11" spans="1:2" ht="13.5" customHeight="1">
+      <c r="B11" s="90" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5">
-      <c r="B10" s="108" t="s">
+    <row r="12" spans="1:2" ht="13.5" customHeight="1">
+      <c r="B12" s="90" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.5" customHeight="1">
-      <c r="B11" s="108" t="s">
+    <row r="13" spans="1:2" ht="13.5" customHeight="1">
+      <c r="B13" s="90" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.5" customHeight="1">
-      <c r="B12" s="108" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" s="91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="91" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="91" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="91" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="91" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="91" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="91" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="91" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="91" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="91" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="91" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="91" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="91" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="91" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="91" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="91" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="91" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="91" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="91" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="91" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="91" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="91" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="91" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="91" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.5" customHeight="1">
-      <c r="B13" s="108" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="91" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="109" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="109" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="109" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="109" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="109" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="109" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="109" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="109" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="109" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="109" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="109" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="109" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="109" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="109" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="109" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="109" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="109" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="109" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="109" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="109" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="109" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="109" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="109" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="109" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="91" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="109" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="91" t="s">
         <v>1122</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="109" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="109" t="s">
-        <v>1124</v>
       </c>
     </row>
   </sheetData>
@@ -16140,7 +16665,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16164,7 +16689,7 @@
         <v>1088</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1089</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/03.指标管理/大宗/指标v1.0.3.xlsx
+++ b/03.指标管理/大宗/指标v1.0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类指标" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1174">
   <si>
     <t>机构数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6852,14 +6852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阈值1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6885,6 +6877,22 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险指标名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险指标编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7578,6 +7586,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7590,25 +7616,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8002,56 +8010,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="11" customFormat="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="105" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
       <c r="M1" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="N1" s="105" t="s">
+      <c r="N1" s="100" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="107"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="102"/>
       <c r="Q1" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="R1" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="103" t="s">
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="103" t="s">
+      <c r="X1" s="99"/>
+      <c r="Y1" s="97" t="s">
         <v>368</v>
       </c>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="101"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="99"/>
       <c r="AE1" s="41"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="41"/>
@@ -8066,8 +8074,8 @@
       <c r="AQ1" s="40"/>
     </row>
     <row r="2" spans="1:43" s="11" customFormat="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="104"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="44" t="s">
         <v>321</v>
       </c>
@@ -10289,8 +10297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10568,12 +10576,12 @@
       <c r="U13" s="93"/>
       <c r="V13" s="93"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
         <v>1152</v>
       </c>
@@ -10599,59 +10607,65 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="36.75" customHeight="1"/>
-    <row r="28" spans="1:10">
+    <row r="27" spans="1:12" ht="36.75" customHeight="1"/>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F29" t="s">
         <v>1163</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
         <v>1164</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>1165</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>1166</v>
       </c>
-      <c r="F29" t="s">
+      <c r="J29" t="s">
         <v>1167</v>
       </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
         <v>1168</v>
       </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>1169</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1170</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1171</v>
       </c>
     </row>
   </sheetData>
@@ -12480,8 +12494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/03.指标管理/大宗/指标v1.0.3.xlsx
+++ b/03.指标管理/大宗/指标v1.0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类指标" sheetId="1" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ACCOUNT.TQS_ZJZHDY——SUM已签约客户QYZT=0（0.已签约；1.未签约；3.已解约；4.预指定；5签约失败）</t>
-  </si>
-  <si>
     <t>当日累计沉淀资金：ACCOUNT.TQS_ZJZH里面的ZHYE；历史累计沉淀资金：DATACENTER.TQS_QS_ZJYE_LS-QMJE</t>
   </si>
   <si>
@@ -6893,6 +6890,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT.TQS_ZJZHDY——SUM已签约客户QYZT=0（0.已签约；1.未签约；3.已解约；4.预指定；5签约失败）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7974,11 +7975,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8011,13 +8012,13 @@
   <sheetData>
     <row r="1" spans="1:43" s="11" customFormat="1">
       <c r="A1" s="103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" s="105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1" s="98"/>
       <c r="E1" s="98"/>
@@ -8025,35 +8026,35 @@
       <c r="G1" s="98"/>
       <c r="H1" s="99"/>
       <c r="I1" s="99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J1" s="107"/>
       <c r="K1" s="107"/>
       <c r="L1" s="107"/>
       <c r="M1" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N1" s="100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O1" s="101"/>
       <c r="P1" s="102"/>
       <c r="Q1" s="41" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R1" s="97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S1" s="98"/>
       <c r="T1" s="98"/>
       <c r="U1" s="98"/>
       <c r="V1" s="99"/>
       <c r="W1" s="97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X1" s="99"/>
       <c r="Y1" s="97" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z1" s="98"/>
       <c r="AA1" s="98"/>
@@ -8077,7 +8078,7 @@
       <c r="A2" s="104"/>
       <c r="B2" s="106"/>
       <c r="C2" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>1</v>
@@ -8095,46 +8096,46 @@
         <v>5</v>
       </c>
       <c r="I2" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>261</v>
-      </c>
       <c r="M2" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="P2" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q2" s="45" t="s">
         <v>43</v>
       </c>
       <c r="R2" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V2" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W2" s="44" t="s">
         <v>11</v>
@@ -8143,28 +8144,28 @@
         <v>16</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z2" s="75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA2" s="44" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AB2" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AC2" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AD2" s="40" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AE2" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="AG2" s="58" t="s">
         <v>12</v>
@@ -8219,13 +8220,13 @@
       <c r="AC3" s="47"/>
       <c r="AD3" s="47"/>
       <c r="AE3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="AF3" s="64" t="s">
-        <v>68</v>
-      </c>
       <c r="AG3" s="55" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AI3" s="47"/>
       <c r="AJ3" s="47"/>
@@ -8240,13 +8241,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>10</v>
@@ -8268,7 +8269,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O4" s="47" t="s">
         <v>10</v>
@@ -8293,11 +8294,11 @@
       </c>
       <c r="AD4" s="47"/>
       <c r="AE4" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF4" s="46"/>
       <c r="AG4" s="55" t="s">
-        <v>57</v>
+        <v>1173</v>
       </c>
       <c r="AI4" s="46"/>
       <c r="AJ4" s="47"/>
@@ -8312,11 +8313,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="47"/>
@@ -8330,7 +8331,7 @@
         <v>10</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="48"/>
       <c r="R5" s="46"/>
@@ -8345,13 +8346,13 @@
       <c r="AC5" s="47"/>
       <c r="AD5" s="47"/>
       <c r="AE5" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF5" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG5" s="55" t="s">
         <v>157</v>
-      </c>
-      <c r="AG5" s="55" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -8362,7 +8363,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>39</v>
@@ -8379,7 +8380,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P6" s="48"/>
       <c r="Q6" s="48"/>
@@ -8395,13 +8396,13 @@
       <c r="AC6" s="47"/>
       <c r="AD6" s="47"/>
       <c r="AE6" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF6" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="AF6" s="46" t="s">
-        <v>164</v>
-      </c>
       <c r="AG6" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -8412,10 +8413,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="47"/>
@@ -8441,13 +8442,13 @@
       <c r="AB7" s="47"/>
       <c r="AC7" s="47"/>
       <c r="AD7" s="47" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AE7" s="55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF7" s="46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG7" s="55" t="s">
         <v>38</v>
@@ -8458,14 +8459,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="47"/>
@@ -8473,10 +8474,10 @@
       <c r="K8" s="47"/>
       <c r="L8" s="48"/>
       <c r="M8" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="48"/>
@@ -8492,13 +8493,13 @@
       <c r="AC8" s="47"/>
       <c r="AD8" s="47"/>
       <c r="AE8" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF8" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="AF8" s="46" t="s">
+      <c r="AG8" s="55" t="s">
         <v>161</v>
-      </c>
-      <c r="AG8" s="55" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -8534,7 +8535,7 @@
         <v>10</v>
       </c>
       <c r="N9" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P9" s="48"/>
       <c r="Q9" s="48"/>
@@ -8554,7 +8555,7 @@
       <c r="AC9" s="47"/>
       <c r="AD9" s="47"/>
       <c r="AE9" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF9" s="46"/>
       <c r="AG9" s="55" t="s">
@@ -8570,7 +8571,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>9</v>
@@ -8595,7 +8596,7 @@
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S10" s="47" t="s">
         <v>39</v>
@@ -8604,7 +8605,7 @@
       <c r="W10" s="46"/>
       <c r="X10" s="48"/>
       <c r="Y10" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z10" s="47" t="s">
         <v>39</v>
@@ -8614,11 +8615,11 @@
       <c r="AC10" s="47"/>
       <c r="AD10" s="47"/>
       <c r="AE10" s="55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF10" s="46"/>
       <c r="AG10" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM10" s="10"/>
     </row>
@@ -8630,7 +8631,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>10</v>
@@ -8668,15 +8669,15 @@
       <c r="AC11" s="47"/>
       <c r="AD11" s="47"/>
       <c r="AE11" s="55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF11" s="46"/>
       <c r="AG11" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM11" s="10"/>
     </row>
-    <row r="12" spans="1:43" ht="38.25" customHeight="1">
+    <row r="12" spans="1:43" ht="45" customHeight="1">
       <c r="A12" s="39">
         <v>10</v>
       </c>
@@ -8685,7 +8686,7 @@
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H12" s="48"/>
       <c r="I12" s="47"/>
@@ -8712,10 +8713,10 @@
       <c r="AC12" s="47"/>
       <c r="AD12" s="47"/>
       <c r="AF12" s="65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG12" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -8729,7 +8730,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="47"/>
@@ -8756,7 +8757,7 @@
       <c r="AC13" s="47"/>
       <c r="AD13" s="47"/>
       <c r="AF13" s="46" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AG13" s="55"/>
     </row>
@@ -8771,7 +8772,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="47"/>
@@ -8782,7 +8783,7 @@
         <v>9</v>
       </c>
       <c r="N14" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
@@ -8799,7 +8800,7 @@
       <c r="AD14" s="47"/>
       <c r="AE14" s="56"/>
       <c r="AF14" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG14" s="56" t="s">
         <v>42</v>
@@ -8810,7 +8811,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>9</v>
@@ -8839,16 +8840,16 @@
       <c r="Y15" s="46"/>
       <c r="Z15" s="47"/>
       <c r="AA15" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB15" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AC15" s="47"/>
       <c r="AD15" s="47"/>
       <c r="AF15" s="46"/>
       <c r="AG15" s="55" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -8887,11 +8888,11 @@
       <c r="AC16" s="47"/>
       <c r="AD16" s="47"/>
       <c r="AE16" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF16" s="46"/>
       <c r="AG16" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -8930,7 +8931,7 @@
       <c r="AC17" s="47"/>
       <c r="AD17" s="47"/>
       <c r="AE17" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF17" s="46"/>
       <c r="AG17" s="55"/>
@@ -8944,7 +8945,7 @@
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="47"/>
@@ -8971,7 +8972,7 @@
       <c r="AC18" s="47"/>
       <c r="AD18" s="47"/>
       <c r="AF18" s="46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG18" s="55" t="s">
         <v>48</v>
@@ -8982,7 +8983,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="50" t="s">
@@ -9000,7 +9001,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O19" s="50"/>
       <c r="P19" s="51"/>
@@ -9034,7 +9035,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="47" t="s">
@@ -9049,7 +9050,7 @@
         <v>9</v>
       </c>
       <c r="N20" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
@@ -9070,7 +9071,7 @@
       <c r="AD20" s="47"/>
       <c r="AF20" s="46"/>
       <c r="AG20" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -9078,7 +9079,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="47" t="s">
@@ -9113,7 +9114,7 @@
       <c r="AD21" s="47"/>
       <c r="AF21" s="46"/>
       <c r="AG21" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -9121,7 +9122,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
@@ -9133,10 +9134,10 @@
       <c r="K22" s="47"/>
       <c r="L22" s="48"/>
       <c r="M22" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N22" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
@@ -9158,7 +9159,7 @@
       <c r="AD22" s="47"/>
       <c r="AF22" s="46"/>
       <c r="AG22" s="55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -9166,7 +9167,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="47" t="s">
@@ -9200,7 +9201,7 @@
       <c r="AC23" s="47"/>
       <c r="AD23" s="47"/>
       <c r="AE23" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF23" s="46"/>
       <c r="AG23" s="55" t="s">
@@ -9212,7 +9213,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="47" t="s">
@@ -9247,7 +9248,7 @@
       <c r="AD24" s="47"/>
       <c r="AF24" s="46"/>
       <c r="AG24" s="66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -9255,7 +9256,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="47" t="s">
@@ -9290,7 +9291,7 @@
       <c r="AD25" s="47"/>
       <c r="AF25" s="46"/>
       <c r="AG25" s="55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="37" customFormat="1">
@@ -9298,7 +9299,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="47" t="s">
@@ -9337,7 +9338,7 @@
       <c r="AE26" s="55"/>
       <c r="AF26" s="46"/>
       <c r="AG26" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -9345,11 +9346,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H27" s="48"/>
       <c r="I27" s="47"/>
@@ -9360,7 +9361,7 @@
         <v>55</v>
       </c>
       <c r="N27" s="60" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
@@ -9415,7 +9416,7 @@
       <c r="AD28" s="47"/>
       <c r="AF28" s="46"/>
       <c r="AG28" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -9423,7 +9424,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="47" t="s">
@@ -9457,7 +9458,7 @@
       <c r="AD29" s="47"/>
       <c r="AF29" s="46"/>
       <c r="AG29" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -9501,7 +9502,7 @@
       <c r="AD30" s="47"/>
       <c r="AF30" s="46"/>
       <c r="AG30" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -9540,14 +9541,14 @@
       <c r="Y31" s="46"/>
       <c r="Z31" s="47"/>
       <c r="AA31" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB31" s="47"/>
       <c r="AC31" s="47"/>
       <c r="AD31" s="47"/>
       <c r="AF31" s="46"/>
       <c r="AG31" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -9586,14 +9587,14 @@
       <c r="Y32" s="46"/>
       <c r="Z32" s="47"/>
       <c r="AA32" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB32" s="47"/>
       <c r="AC32" s="47"/>
       <c r="AD32" s="47"/>
       <c r="AF32" s="46"/>
       <c r="AG32" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -9601,13 +9602,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="92" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C33" s="52" t="s">
         <v>1102</v>
       </c>
-      <c r="C33" s="52" t="s">
-        <v>1103</v>
-      </c>
       <c r="D33" s="53" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
@@ -9621,12 +9622,12 @@
         <v>9</v>
       </c>
       <c r="N33" s="62" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O33" s="53"/>
       <c r="P33" s="54"/>
       <c r="Q33" s="57" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="R33" s="52"/>
       <c r="S33" s="53"/>
@@ -9644,7 +9645,7 @@
       <c r="AE33" s="57"/>
       <c r="AF33" s="57"/>
       <c r="AG33" s="54" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -9667,7 +9668,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="B37" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC37" s="47"/>
       <c r="AD37" s="47"/>
@@ -9675,7 +9676,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="C38" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC38" s="47"/>
       <c r="AD38" s="47"/>
@@ -10154,32 +10155,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -10200,37 +10201,37 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="B6" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -10254,37 +10255,37 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
       <c r="B6" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -10316,51 +10317,51 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="B2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D2" t="s">
         <v>1124</v>
       </c>
-      <c r="C2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" t="s">
         <v>1125</v>
       </c>
-      <c r="E2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1126</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1127</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1128</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1129</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1130</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>1131</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>1132</v>
       </c>
-      <c r="M2" t="s">
-        <v>1133</v>
-      </c>
       <c r="N2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -10368,56 +10369,56 @@
         <v>1001</v>
       </c>
       <c r="C3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D3" t="s">
         <v>1134</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="B7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D7" t="s">
         <v>1124</v>
       </c>
-      <c r="C7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" t="s">
         <v>1125</v>
       </c>
-      <c r="E7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1126</v>
-      </c>
       <c r="G7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I7" t="s">
         <v>1138</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>1139</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" t="s">
         <v>1140</v>
-      </c>
-      <c r="K7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -10440,7 +10441,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P10" s="93"/>
       <c r="Q10" s="93"/>
@@ -10450,18 +10451,18 @@
       <c r="U10" s="93"/>
       <c r="V10" s="93"/>
       <c r="W10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="93" customFormat="1" ht="42.75">
       <c r="B11" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" s="93" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="93" t="s">
-        <v>296</v>
-      </c>
       <c r="D11" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="93" t="s">
         <v>14</v>
@@ -10470,49 +10471,49 @@
         <v>15</v>
       </c>
       <c r="G11" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="I11" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="94" t="s">
         <v>298</v>
       </c>
-      <c r="I11" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="94" t="s">
+      <c r="L11" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="L11" s="94" t="s">
+      <c r="M11" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="N11" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="N11" s="94" t="s">
+      <c r="O11" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="O11" s="94" t="s">
+      <c r="P11" s="93" t="s">
         <v>303</v>
       </c>
-      <c r="P11" s="93" t="s">
-        <v>304</v>
-      </c>
       <c r="Q11" s="93" t="s">
+        <v>1142</v>
+      </c>
+      <c r="R11" s="93" t="s">
         <v>1143</v>
       </c>
-      <c r="R11" s="93" t="s">
+      <c r="S11" s="93" t="s">
         <v>1144</v>
       </c>
-      <c r="S11" s="93" t="s">
-        <v>1145</v>
-      </c>
       <c r="W11" s="93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X11" s="93" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -10520,22 +10521,22 @@
         <v>43034.396087962959</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E12" t="s">
         <v>1146</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="94" t="s">
         <v>1147</v>
-      </c>
-      <c r="F12" s="94" t="s">
-        <v>1148</v>
       </c>
       <c r="G12" s="94">
         <v>0.5</v>
       </c>
       <c r="H12" s="94" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I12" s="94"/>
       <c r="J12" s="94"/>
@@ -10545,10 +10546,10 @@
         <v>1</v>
       </c>
       <c r="N12" s="96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O12" s="96" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="P12" s="93"/>
       <c r="Q12" s="93"/>
@@ -10578,94 +10579,94 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="B18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" t="s">
         <v>1152</v>
       </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F18" t="s">
         <v>1153</v>
       </c>
-      <c r="E18" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>1154</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I18" t="s">
         <v>1155</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="B22" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="36.75" customHeight="1"/>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="B29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D29" t="s">
         <v>1170</v>
       </c>
-      <c r="C29" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>1171</v>
       </c>
-      <c r="E29" t="s">
-        <v>1172</v>
-      </c>
       <c r="F29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G29" t="s">
         <v>1163</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>1164</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>1165</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>1166</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>1167</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>1168</v>
-      </c>
-      <c r="L29" t="s">
-        <v>1169</v>
       </c>
     </row>
   </sheetData>
@@ -10678,8 +10679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10696,51 +10697,51 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="35" customFormat="1">
       <c r="B2" s="77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="80" t="s">
         <v>274</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>275</v>
       </c>
       <c r="F2" s="80" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="I2" s="81" t="s">
         <v>277</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="27" customFormat="1" ht="59.25" customHeight="1">
       <c r="A3" s="26"/>
       <c r="B3" s="109" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="G3" s="17">
         <v>18</v>
@@ -10756,7 +10757,7 @@
       <c r="A4" s="28"/>
       <c r="B4" s="109"/>
       <c r="C4" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -10774,38 +10775,38 @@
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="13" customFormat="1" ht="213.75">
       <c r="A6" s="28"/>
       <c r="B6" s="109"/>
       <c r="C6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="G6" s="18">
         <v>0.7</v>
@@ -10824,10 +10825,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="18">
@@ -10844,13 +10845,13 @@
       <c r="A8" s="28"/>
       <c r="B8" s="109"/>
       <c r="C8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="17">
@@ -10867,13 +10868,13 @@
       <c r="A9" s="28"/>
       <c r="B9" s="109"/>
       <c r="C9" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="17">
@@ -10893,10 +10894,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>49</v>
@@ -10913,67 +10914,67 @@
     </row>
     <row r="11" spans="1:9" ht="28.5">
       <c r="B11" s="109" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>285</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5">
       <c r="B12" s="109"/>
       <c r="C12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="I12" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="42.75">
       <c r="B13" s="109"/>
       <c r="C13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="17">
         <v>3</v>
@@ -10988,16 +10989,16 @@
     <row r="14" spans="1:9" ht="42.75">
       <c r="B14" s="109"/>
       <c r="C14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="17">
         <v>3</v>
@@ -11015,13 +11016,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="17">
         <v>10</v>
@@ -11035,28 +11036,28 @@
     </row>
     <row r="16" spans="1:9" ht="128.25">
       <c r="B16" s="109" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>288</v>
-      </c>
       <c r="H16" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>284</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="114">
@@ -11065,13 +11066,13 @@
         <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G17" s="18">
         <v>0.3</v>
@@ -11086,25 +11087,25 @@
     <row r="18" spans="2:9" ht="128.25">
       <c r="B18" s="109"/>
       <c r="C18" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H18" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>284</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="42.75">
@@ -11113,13 +11114,13 @@
         <v>19</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G19" s="18">
         <v>0.2</v>
@@ -11134,16 +11135,16 @@
     <row r="20" spans="2:9" ht="28.5">
       <c r="B20" s="109"/>
       <c r="C20" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="17">
         <v>20</v>
@@ -11158,13 +11159,13 @@
     <row r="21" spans="2:9" ht="57">
       <c r="B21" s="109"/>
       <c r="C21" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>23</v>
@@ -11181,16 +11182,16 @@
     </row>
     <row r="22" spans="2:9" ht="42.75">
       <c r="B22" s="109" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>24</v>
@@ -11208,13 +11209,13 @@
     <row r="23" spans="2:9" ht="57">
       <c r="B23" s="109"/>
       <c r="C23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>54</v>
@@ -11235,10 +11236,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>54</v>
@@ -11259,10 +11260,10 @@
         <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>54</v>
@@ -11283,13 +11284,13 @@
         <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="G26" s="17">
         <v>1</v>
@@ -11304,16 +11305,16 @@
     <row r="27" spans="2:9" ht="28.5">
       <c r="B27" s="109"/>
       <c r="C27" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="G27" s="18">
         <v>0.02</v>
@@ -11331,13 +11332,13 @@
         <v>28</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="G28" s="17">
         <v>2</v>
@@ -11352,16 +11353,16 @@
     <row r="29" spans="2:9" ht="42.75">
       <c r="B29" s="109"/>
       <c r="C29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="G29" s="18">
         <v>0.3</v>
@@ -11375,19 +11376,19 @@
     </row>
     <row r="30" spans="2:9" ht="28.5">
       <c r="B30" s="109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="17">
         <v>2</v>
@@ -11405,11 +11406,11 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="21">
         <v>1</v>
@@ -11427,11 +11428,11 @@
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="21">
         <v>1</v>
@@ -11449,11 +11450,11 @@
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="21">
         <v>1</v>
@@ -11467,17 +11468,17 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G34" s="21">
         <v>1</v>
@@ -11491,11 +11492,11 @@
         <v>34</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" s="21">
         <v>1</v>
@@ -11533,174 +11534,174 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="83" customFormat="1">
       <c r="A2" s="82"/>
       <c r="B2" s="76" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="B3" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -11732,66 +11733,66 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="85" customFormat="1" ht="15.75">
       <c r="A2" s="32"/>
       <c r="B2" s="84" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D2" s="84" t="s">
         <v>1079</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3"/>
       <c r="B3" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4"/>
       <c r="B4" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
       <c r="A5"/>
       <c r="B5" s="34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6"/>
       <c r="B6" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="4"/>
@@ -11800,215 +11801,215 @@
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7"/>
       <c r="B7" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8"/>
       <c r="B8" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9"/>
       <c r="B9" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10"/>
       <c r="B10" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11"/>
       <c r="B11" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="A12"/>
       <c r="B12" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="A13"/>
       <c r="B13" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="A14"/>
       <c r="B14" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15"/>
       <c r="B15" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16"/>
       <c r="B16" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15.75">
       <c r="A17"/>
       <c r="B17" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18"/>
       <c r="B18" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15.75">
       <c r="A19"/>
       <c r="B19" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="15.75">
       <c r="A20"/>
       <c r="B20" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="A21"/>
       <c r="B21" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="15.75">
       <c r="A22"/>
       <c r="B22" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15.75">
       <c r="A23"/>
       <c r="B23" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="4"/>
@@ -12017,46 +12018,46 @@
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24"/>
       <c r="B24" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="15.75">
       <c r="A25"/>
       <c r="B25" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="15.75">
       <c r="A26"/>
       <c r="B26" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="15.75">
       <c r="A27"/>
       <c r="B27" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="4"/>
@@ -12065,52 +12066,52 @@
     <row r="28" spans="1:5" ht="15.75">
       <c r="A28"/>
       <c r="B28" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
       <c r="A29"/>
       <c r="B29" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="15.75">
       <c r="A30"/>
       <c r="B30" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="15.75">
       <c r="A31"/>
       <c r="B31" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E31" s="1"/>
     </row>
@@ -12134,170 +12135,170 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="85" customFormat="1">
       <c r="B2" s="86" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>1083</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24" s="4"/>
     </row>
@@ -12323,165 +12324,165 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="85" customFormat="1">
       <c r="B2" s="87" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C2" s="87" t="s">
         <v>1085</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -12494,7 +12495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -12505,202 +12506,202 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="B2" s="90" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5">
       <c r="B3" s="90" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="B4" s="90" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="B5" s="90" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="B6" s="90" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="B7" s="90" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="B8" s="90" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="B9" s="90" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5">
       <c r="B10" s="90" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.5" customHeight="1">
       <c r="B11" s="90" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.5" customHeight="1">
       <c r="B12" s="90" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1">
       <c r="B13" s="90" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="91" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="91" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="91" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="91" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="91" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="91" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="91" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="91" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="91" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="91" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="91" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="91" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="91" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="91" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="91" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="91" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="91" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="91" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="91" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="91" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="91" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="91" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="91" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="91" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="91" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="91" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -12729,27 +12730,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="71" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>1012</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="C1" s="71" t="s">
         <v>1013</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="D1" s="71" t="s">
         <v>1014</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="38" t="s">
         <v>373</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>374</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -12757,57 +12758,57 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -12815,7 +12816,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -12823,17 +12824,17 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -12841,403 +12842,403 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="72" t="s">
         <v>410</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="D26" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="D31" s="72" t="s">
         <v>429</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D32" s="72" t="s">
         <v>431</v>
-      </c>
-      <c r="D32" s="72" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>433</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D34" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="D49" s="72" t="s">
         <v>463</v>
-      </c>
-      <c r="D49" s="72" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D50" s="72" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D51" s="6"/>
     </row>
@@ -13245,7 +13246,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -13253,7 +13254,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D53" s="6"/>
     </row>
@@ -13261,7 +13262,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D54" s="6"/>
     </row>
@@ -13274,7 +13275,7 @@
     <row r="56" spans="1:4">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C56" s="34"/>
       <c r="D56" s="6"/>
@@ -13283,7 +13284,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D57" s="6"/>
     </row>
@@ -13291,7 +13292,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D58" s="6"/>
     </row>
@@ -13299,259 +13300,259 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D59" s="72" t="s">
         <v>473</v>
-      </c>
-      <c r="D59" s="72" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.5">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D60" s="72" t="s">
         <v>475</v>
-      </c>
-      <c r="D60" s="72" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C61" s="34" t="s">
+      <c r="D61" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="D67" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C79" s="34" t="s">
+      <c r="D79" s="72" t="s">
         <v>514</v>
-      </c>
-      <c r="D79" s="72" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D83" s="6"/>
     </row>
@@ -13559,7 +13560,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D84" s="72"/>
     </row>
@@ -13567,131 +13568,131 @@
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C88" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="D88" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C92" s="73" t="s">
+        <v>470</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="C92" s="73" t="s">
-        <v>471</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="73" t="s">
+        <v>536</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="73" t="s">
+        <v>538</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="73" t="s">
+        <v>540</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D97" s="6"/>
     </row>
@@ -13699,7 +13700,7 @@
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D98" s="6"/>
     </row>
@@ -13707,49 +13708,49 @@
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="73" t="s">
+        <v>544</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="73" t="s">
+        <v>546</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="73" t="s">
+        <v>548</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="74" t="s">
+        <v>550</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="6"/>
       <c r="B103" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C103" s="34" t="s">
         <v>553</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>554</v>
       </c>
       <c r="D103" s="6"/>
     </row>
@@ -13757,7 +13758,7 @@
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D104" s="6"/>
     </row>
@@ -13765,7 +13766,7 @@
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D105" s="6"/>
     </row>
@@ -13773,7 +13774,7 @@
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D106" s="6"/>
     </row>
@@ -13781,7 +13782,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D107" s="6"/>
     </row>
@@ -13789,7 +13790,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D108" s="6"/>
     </row>
@@ -13797,7 +13798,7 @@
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D109" s="6"/>
     </row>
@@ -13805,7 +13806,7 @@
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D110" s="6"/>
     </row>
@@ -13813,7 +13814,7 @@
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D111" s="6"/>
     </row>
@@ -13821,7 +13822,7 @@
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D112" s="6"/>
     </row>
@@ -13829,29 +13830,29 @@
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C114" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="D114" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D115" s="6"/>
     </row>
@@ -13859,7 +13860,7 @@
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D116" s="6"/>
     </row>
@@ -13867,7 +13868,7 @@
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D117" s="6"/>
     </row>
@@ -13875,7 +13876,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D118" s="6"/>
     </row>
@@ -13883,17 +13884,17 @@
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C120" s="34" t="s">
         <v>570</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>571</v>
       </c>
       <c r="D120" s="6"/>
     </row>
@@ -13901,221 +13902,221 @@
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C122" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="B122" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C122" s="34" t="s">
+      <c r="D122" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="6"/>
       <c r="B129" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C129" s="34" t="s">
         <v>588</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="D129" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="D137" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="D138" s="72" t="s">
         <v>607</v>
-      </c>
-      <c r="D138" s="72" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="34" t="s">
+        <v>608</v>
+      </c>
+      <c r="D139" s="72" t="s">
         <v>609</v>
-      </c>
-      <c r="D139" s="72" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="D140" s="72" t="s">
         <v>611</v>
-      </c>
-      <c r="D140" s="72" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D142" s="6"/>
     </row>
@@ -14123,110 +14124,110 @@
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="D145" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>622</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="D150" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="D150" s="6" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="D151" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="D153" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -14237,196 +14238,196 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="34" t="s">
         <v>639</v>
       </c>
-      <c r="C155" s="34" t="s">
+      <c r="D155" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D159" s="72" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="D165" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="D168" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="34" t="s">
+        <v>662</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="D170" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="D171" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="34" t="s">
+        <v>668</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="34" t="s">
+        <v>670</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -14438,283 +14439,283 @@
     <row r="175" spans="1:4">
       <c r="A175" s="6"/>
       <c r="B175" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C175" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="C175" s="34" t="s">
+      <c r="D175" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="D179" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="D180" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="D181" s="72" t="s">
         <v>683</v>
-      </c>
-      <c r="D181" s="72" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="D182" s="72" t="s">
         <v>685</v>
-      </c>
-      <c r="D182" s="72" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="34" t="s">
+        <v>686</v>
+      </c>
+      <c r="D183" s="72" t="s">
         <v>687</v>
-      </c>
-      <c r="D183" s="72" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D184" s="72" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D185" s="72" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="D187" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="D188" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="D190" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>699</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="D192" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="D192" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="D193" s="72" t="s">
         <v>703</v>
-      </c>
-      <c r="D193" s="72" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="34" t="s">
+        <v>704</v>
+      </c>
+      <c r="D194" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="D195" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="D196" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="D197" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="34" t="s">
+        <v>712</v>
+      </c>
+      <c r="D198" s="6" t="s">
         <v>713</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="D199" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="D200" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="34" t="s">
+        <v>718</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>719</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="34" t="s">
+        <v>720</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -14726,362 +14727,362 @@
     <row r="204" spans="1:4">
       <c r="A204" s="6"/>
       <c r="B204" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C204" s="34" t="s">
         <v>723</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="D204" s="6" t="s">
         <v>724</v>
-      </c>
-      <c r="D204" s="6" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="D208" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="D208" s="6" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="D209" s="72" t="s">
         <v>731</v>
-      </c>
-      <c r="D209" s="72" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="D210" s="72" t="s">
         <v>733</v>
-      </c>
-      <c r="D210" s="72" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D211" s="72" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="34" t="s">
+        <v>736</v>
+      </c>
+      <c r="D213" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="34" t="s">
+        <v>738</v>
+      </c>
+      <c r="D214" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="34" t="s">
+        <v>740</v>
+      </c>
+      <c r="D215" s="72" t="s">
         <v>741</v>
-      </c>
-      <c r="D215" s="72" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="34" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="D217" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="D220" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="D221" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="D222" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="6"/>
       <c r="B223" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C223" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="D223" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="C223" s="34" t="s">
-        <v>642</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D224" s="72" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D225" s="72" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="34" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="D232" s="6" t="s">
         <v>765</v>
-      </c>
-      <c r="D232" s="6" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="D234" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="D234" s="6" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="34" t="s">
+        <v>769</v>
+      </c>
+      <c r="D235" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="D236" s="6" t="s">
         <v>772</v>
-      </c>
-      <c r="D236" s="6" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="34" t="s">
+        <v>773</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>774</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>776</v>
-      </c>
-      <c r="D238" s="6" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D239" s="72"/>
     </row>
@@ -15089,69 +15090,69 @@
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="34" t="s">
+        <v>778</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="D241" s="72" t="s">
         <v>781</v>
-      </c>
-      <c r="D241" s="72" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="34" t="s">
+        <v>782</v>
+      </c>
+      <c r="D242" s="6" t="s">
         <v>783</v>
-      </c>
-      <c r="D242" s="6" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="6"/>
       <c r="B243" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="D243" s="6" t="s">
         <v>785</v>
-      </c>
-      <c r="C243" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D246" s="6"/>
     </row>
@@ -15159,249 +15160,249 @@
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D247" s="72" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D248" s="72" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="D251" s="72" t="s">
         <v>788</v>
-      </c>
-      <c r="D251" s="72" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="34" t="s">
+        <v>789</v>
+      </c>
+      <c r="D252" s="72" t="s">
         <v>790</v>
-      </c>
-      <c r="D252" s="72" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="34" t="s">
+        <v>795</v>
+      </c>
+      <c r="D257" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="34" t="s">
+        <v>797</v>
+      </c>
+      <c r="D258" s="6" t="s">
         <v>798</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="6"/>
       <c r="B259" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C259" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="D259" s="6" t="s">
         <v>800</v>
-      </c>
-      <c r="C259" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="D259" s="6" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="D260" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="D260" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="34" t="s">
+        <v>805</v>
+      </c>
+      <c r="D263" s="6" t="s">
         <v>806</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D264" s="72" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="D267" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="D268" s="6" t="s">
         <v>813</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="34" t="s">
+        <v>814</v>
+      </c>
+      <c r="D269" s="6" t="s">
         <v>815</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="D270" s="6" t="s">
         <v>817</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D271" s="6"/>
     </row>
@@ -15409,1262 +15410,1262 @@
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>820</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="D273" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D277" s="72" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="34" t="s">
+        <v>827</v>
+      </c>
+      <c r="D278" s="6" t="s">
         <v>828</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="D279" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="28.5">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="34" t="s">
+        <v>831</v>
+      </c>
+      <c r="D280" s="6" t="s">
         <v>832</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="6"/>
       <c r="B281" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C281" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="C281" s="34" t="s">
+      <c r="D281" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="34" t="s">
+        <v>837</v>
+      </c>
+      <c r="D283" s="6" t="s">
         <v>838</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="D285" s="72" t="s">
         <v>841</v>
-      </c>
-      <c r="D285" s="72" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="D286" s="6" t="s">
         <v>843</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="D287" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>847</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="D289" s="6" t="s">
         <v>849</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="34" t="s">
+        <v>850</v>
+      </c>
+      <c r="D290" s="6" t="s">
         <v>851</v>
-      </c>
-      <c r="D290" s="6" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="D291" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="D292" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="D292" s="6" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="28.5">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="D293" s="6" t="s">
         <v>857</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="28.5">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="D294" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="D295" s="6" t="s">
         <v>861</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="28.5">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="D296" s="6" t="s">
         <v>863</v>
-      </c>
-      <c r="D296" s="6" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="28.5">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="D297" s="6" t="s">
         <v>865</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="D298" s="6" t="s">
         <v>867</v>
-      </c>
-      <c r="D298" s="6" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="D299" s="72" t="s">
         <v>869</v>
-      </c>
-      <c r="D299" s="72" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="D300" s="6" t="s">
         <v>871</v>
-      </c>
-      <c r="D300" s="6" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="D301" s="6" t="s">
         <v>873</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="D302" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="D302" s="6" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="28.5">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="34" t="s">
+        <v>876</v>
+      </c>
+      <c r="D303" s="6" t="s">
         <v>877</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="28.5">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="D304" s="6" t="s">
         <v>879</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="34" t="s">
+        <v>880</v>
+      </c>
+      <c r="D305" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="D306" s="6" t="s">
         <v>883</v>
-      </c>
-      <c r="D306" s="6" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="6"/>
       <c r="B307" s="72" t="s">
+        <v>884</v>
+      </c>
+      <c r="C307" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="D307" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="C307" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="34" t="s">
+        <v>888</v>
+      </c>
+      <c r="D310" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="D310" s="6" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D313" s="72" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D315" s="72" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="34" t="s">
+        <v>895</v>
+      </c>
+      <c r="D316" s="6" t="s">
         <v>896</v>
-      </c>
-      <c r="D316" s="6" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="34" t="s">
+        <v>898</v>
+      </c>
+      <c r="D318" s="6" t="s">
         <v>899</v>
-      </c>
-      <c r="D318" s="6" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="C320" s="34" t="s">
+        <v>901</v>
+      </c>
+      <c r="D320" s="6" t="s">
         <v>902</v>
-      </c>
-      <c r="D320" s="6" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="C321" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="D321" s="6" t="s">
         <v>904</v>
-      </c>
-      <c r="D321" s="6" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="C322" s="34" t="s">
+        <v>905</v>
+      </c>
+      <c r="D322" s="6" t="s">
         <v>906</v>
-      </c>
-      <c r="D322" s="6" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="C323" s="34" t="s">
+        <v>907</v>
+      </c>
+      <c r="D323" s="6" t="s">
         <v>908</v>
-      </c>
-      <c r="D323" s="6" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="C324" s="34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="6"/>
       <c r="B325" s="72" t="s">
+        <v>910</v>
+      </c>
+      <c r="C325" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="D325" s="6" t="s">
         <v>911</v>
-      </c>
-      <c r="C325" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="D325" s="6" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="C326" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="C327" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="C328" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="C329" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="C330" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="C331" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="C332" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D332" s="72" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="C333" s="34" t="s">
+        <v>919</v>
+      </c>
+      <c r="D333" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="D333" s="6" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="C334" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="C335" s="34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="C336" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="34" t="s">
+        <v>925</v>
+      </c>
+      <c r="D338" s="6" t="s">
         <v>926</v>
-      </c>
-      <c r="D338" s="6" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="6"/>
       <c r="B339" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="C339" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="D339" s="6" t="s">
         <v>928</v>
-      </c>
-      <c r="C339" s="34" t="s">
-        <v>640</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="D342" s="6" t="s">
         <v>932</v>
-      </c>
-      <c r="D342" s="6" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="34" t="s">
+        <v>934</v>
+      </c>
+      <c r="D344" s="6" t="s">
         <v>935</v>
-      </c>
-      <c r="D344" s="6" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D345" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="34" t="s">
+        <v>939</v>
+      </c>
+      <c r="D348" s="6" t="s">
         <v>940</v>
-      </c>
-      <c r="D348" s="6" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D349" s="72" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="34" t="s">
+        <v>942</v>
+      </c>
+      <c r="D350" s="6" t="s">
         <v>943</v>
-      </c>
-      <c r="D350" s="6" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="D351" s="6" t="s">
         <v>945</v>
-      </c>
-      <c r="D351" s="6" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="34" t="s">
+        <v>947</v>
+      </c>
+      <c r="D353" s="6" t="s">
         <v>948</v>
-      </c>
-      <c r="D353" s="6" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="34" t="s">
+        <v>953</v>
+      </c>
+      <c r="D358" s="6" t="s">
         <v>954</v>
-      </c>
-      <c r="D358" s="6" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="34" t="s">
+        <v>955</v>
+      </c>
+      <c r="D359" s="6" t="s">
         <v>956</v>
-      </c>
-      <c r="D359" s="6" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="6"/>
       <c r="B360" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="C360" s="34" t="s">
         <v>958</v>
       </c>
-      <c r="C360" s="34" t="s">
+      <c r="D360" s="6" t="s">
         <v>959</v>
-      </c>
-      <c r="D360" s="6" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="34" t="s">
+        <v>963</v>
+      </c>
+      <c r="D364" s="6" t="s">
         <v>964</v>
-      </c>
-      <c r="D364" s="6" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="34" t="s">
+        <v>967</v>
+      </c>
+      <c r="D367" s="6" t="s">
         <v>968</v>
-      </c>
-      <c r="D367" s="6" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="34" t="s">
+        <v>969</v>
+      </c>
+      <c r="D368" s="6" t="s">
         <v>970</v>
-      </c>
-      <c r="D368" s="6" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="34" t="s">
+        <v>971</v>
+      </c>
+      <c r="D369" s="6" t="s">
         <v>972</v>
-      </c>
-      <c r="D369" s="6" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="34" t="s">
+        <v>974</v>
+      </c>
+      <c r="D371" s="6" t="s">
         <v>975</v>
-      </c>
-      <c r="D371" s="6" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D372" s="72" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D374" s="72" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="34" t="s">
+        <v>979</v>
+      </c>
+      <c r="D375" s="6" t="s">
         <v>980</v>
-      </c>
-      <c r="D375" s="6" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="34" t="s">
+        <v>981</v>
+      </c>
+      <c r="D376" s="6" t="s">
         <v>982</v>
-      </c>
-      <c r="D376" s="6" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="34" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="34" t="s">
+        <v>984</v>
+      </c>
+      <c r="D378" s="6" t="s">
         <v>985</v>
-      </c>
-      <c r="D378" s="6" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="6"/>
       <c r="B379" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C379" s="34" t="s">
         <v>987</v>
       </c>
-      <c r="C379" s="34" t="s">
+      <c r="D379" s="6" t="s">
         <v>988</v>
-      </c>
-      <c r="D379" s="6" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="34" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="34" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="34" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="34" t="s">
+        <v>998</v>
+      </c>
+      <c r="D389" s="6" t="s">
         <v>999</v>
-      </c>
-      <c r="D389" s="6" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D390" s="6" t="s">
         <v>1001</v>
-      </c>
-      <c r="D390" s="6" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="34" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D391" s="6" t="s">
         <v>1003</v>
-      </c>
-      <c r="D391" s="6" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="34" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D393" s="6" t="s">
         <v>1006</v>
-      </c>
-      <c r="D393" s="6" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="34" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D394" s="6" t="s">
         <v>1008</v>
-      </c>
-      <c r="D394" s="6" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="34" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -16691,29 +16692,29 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="38"/>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16728,76 +16729,76 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="7" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="7" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/03.指标管理/大宗/指标v1.0.3.xlsx
+++ b/03.指标管理/大宗/指标v1.0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类指标" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="1212">
   <si>
     <t>机构数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6894,6 +6894,164 @@
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心产品类别表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、客户、日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、客户、日、累积T-1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、客户、日、单笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、日、品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、日、品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、客户、日、品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易市场、风险大类、日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客损占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续亏损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户黑名单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户适当性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续盈利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额入金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁出金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁入金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额亏损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主力账户</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大波幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计波幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违规上市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格偏离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大户持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员舆情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清算中心舆情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业舆情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业黑名单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下 为风险指标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7093,7 +7251,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7133,6 +7291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7338,7 +7502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7564,17 +7728,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7584,6 +7742,15 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7625,6 +7792,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7632,6 +7817,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7648,22 +7839,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>147722</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>81047</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="C:\Users\ada.guo\Documents\Tencent Files\359403329\Image\Group\90ZS$RV~40)_HGLITK%R6U2.png">
+        <xdr:cNvPr id="5" name="图片 4" descr="C:\Users\ada.guo\Documents\Tencent Files\359403329\Image\Group\90ZS$RV~40)_HGLITK%R6U2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6694F018-2EA2-48E9-8FDA-92F487EEA465}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8237815-7A53-4B0C-BEC4-BA5D07A5601C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7686,7 +7877,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1685925" y="6791324"/>
+          <a:off x="1619250" y="13049250"/>
           <a:ext cx="5805572" cy="2181225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7974,11 +8165,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="AR31" sqref="AR31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8010,56 +8201,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="11" customFormat="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
       <c r="M1" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="N1" s="100" t="s">
+      <c r="N1" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="101"/>
-      <c r="P1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="103"/>
       <c r="Q1" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="R1" s="97" t="s">
+      <c r="R1" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="97" t="s">
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="97" t="s">
+      <c r="X1" s="100"/>
+      <c r="Y1" s="98" t="s">
         <v>368</v>
       </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="100"/>
       <c r="AE1" s="41"/>
       <c r="AF1" s="43"/>
       <c r="AG1" s="41"/>
@@ -8069,13 +8260,13 @@
       <c r="AL1" s="40"/>
       <c r="AM1" s="40"/>
       <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
+      <c r="AO1" s="113"/>
       <c r="AP1" s="40"/>
       <c r="AQ1" s="40"/>
     </row>
     <row r="2" spans="1:43" s="11" customFormat="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="106"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="44" t="s">
         <v>321</v>
       </c>
@@ -8176,7 +8367,7 @@
       <c r="AM2" s="40"/>
       <c r="AN2" s="40"/>
       <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
+      <c r="AP2" s="47"/>
       <c r="AQ2" s="40"/>
     </row>
     <row r="3" spans="1:43">
@@ -8894,7 +9085,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:42">
       <c r="A17" s="39">
         <v>15</v>
       </c>
@@ -8935,7 +9126,7 @@
       <c r="AF17" s="46"/>
       <c r="AG17" s="55"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:42">
       <c r="A18" s="39">
         <v>16</v>
       </c>
@@ -8977,7 +9168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="15" customFormat="1">
+    <row r="19" spans="1:42" s="15" customFormat="1">
       <c r="A19" s="39">
         <v>17</v>
       </c>
@@ -9029,7 +9220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:42">
       <c r="A20" s="39">
         <v>18</v>
       </c>
@@ -9073,7 +9264,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:42">
       <c r="A21" s="39">
         <v>19</v>
       </c>
@@ -9116,7 +9307,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:42">
       <c r="A22" s="39">
         <v>20</v>
       </c>
@@ -9161,7 +9352,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:42">
       <c r="A23" s="39">
         <v>21</v>
       </c>
@@ -9207,7 +9398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:42">
       <c r="A24" s="39">
         <v>22</v>
       </c>
@@ -9250,7 +9441,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:42">
       <c r="A25" s="39">
         <v>23</v>
       </c>
@@ -9293,7 +9484,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="37" customFormat="1">
+    <row r="26" spans="1:42" s="37" customFormat="1">
       <c r="A26" s="39">
         <v>24</v>
       </c>
@@ -9339,8 +9530,17 @@
       <c r="AG26" s="55" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="39">
         <v>25</v>
       </c>
@@ -9378,7 +9578,7 @@
       <c r="AF27" s="46"/>
       <c r="AG27" s="55"/>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:42">
       <c r="A28" s="39">
         <v>26</v>
       </c>
@@ -9418,7 +9618,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:42">
       <c r="A29" s="39">
         <v>27</v>
       </c>
@@ -9460,7 +9660,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:42">
       <c r="A30" s="39">
         <v>28</v>
       </c>
@@ -9504,7 +9704,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:42">
       <c r="A31" s="39">
         <v>29</v>
       </c>
@@ -9550,11 +9750,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:42">
       <c r="A32" s="39">
         <v>30</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="58" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="46" t="s">
@@ -9596,297 +9796,1702 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
-      <c r="A33" s="36">
+    <row r="33" spans="1:41">
+      <c r="A33" s="114">
         <v>31</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="111" t="s">
         <v>1102</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="47" t="s">
         <v>1103</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="47" t="s">
         <v>1103</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="57" t="s">
+      <c r="H33" s="48"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="62" t="s">
+      <c r="N33" s="112" t="s">
         <v>1103</v>
       </c>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="57" t="s">
+      <c r="P33" s="48"/>
+      <c r="Q33" s="55" t="s">
         <v>1103</v>
       </c>
-      <c r="R33" s="52"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="54" t="s">
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="48"/>
+      <c r="AF33" s="46"/>
+      <c r="AG33" s="55" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="34" spans="1:33">
-      <c r="A34" s="89"/>
+      <c r="AH33" s="47"/>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" s="116" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B34" s="116"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="112"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
       <c r="AC34" s="47"/>
       <c r="AD34" s="47"/>
-      <c r="AE34" s="47"/>
-    </row>
-    <row r="35" spans="1:33">
-      <c r="A35" s="89"/>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="47"/>
+    </row>
+    <row r="35" spans="1:41">
+      <c r="A35" s="115">
+        <v>32</v>
+      </c>
+      <c r="B35" s="58" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="48"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="47"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
       <c r="AC35" s="47"/>
       <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="A36" s="89"/>
+      <c r="AE35" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF35" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG35" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI35" s="47"/>
+      <c r="AJ35" s="47"/>
+      <c r="AK35" s="47"/>
+      <c r="AL35" s="47"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="47"/>
+    </row>
+    <row r="36" spans="1:41">
+      <c r="A36" s="115">
+        <v>33</v>
+      </c>
+      <c r="B36" s="58" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="48"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="47"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="47"/>
+      <c r="AA36" s="47"/>
+      <c r="AB36" s="47"/>
       <c r="AC36" s="47"/>
       <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="B37" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="47"/>
+      <c r="AK36" s="47"/>
+      <c r="AL36" s="47"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="47"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="115">
+        <v>34</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="48"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="47"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
       <c r="AC37" s="47"/>
       <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="C38" s="47" t="s">
-        <v>307</v>
-      </c>
+      <c r="AE37" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF37" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG37" s="55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" s="115">
+        <v>35</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="48"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="47"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="47"/>
+      <c r="AA38" s="47"/>
+      <c r="AB38" s="47"/>
       <c r="AC38" s="47"/>
       <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AE38" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF38" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG38" s="55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" s="115">
+        <v>36</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="48"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="47"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
       <c r="AC39" s="47"/>
       <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AE39" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF39" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG39" s="55"/>
+    </row>
+    <row r="40" spans="1:41">
+      <c r="A40" s="115">
+        <v>37</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="48"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="47"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="47"/>
+      <c r="AA40" s="47"/>
+      <c r="AB40" s="47"/>
       <c r="AC40" s="47"/>
       <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AE40" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF40" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG40" s="55"/>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="115">
+        <v>38</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="48"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="47"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="47"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
       <c r="AC41" s="47"/>
       <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AE41" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF41" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG41" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM41" s="10"/>
+    </row>
+    <row r="42" spans="1:41" ht="12" customHeight="1">
+      <c r="A42" s="115">
+        <v>39</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="48"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="47"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
       <c r="AC42" s="47"/>
       <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AE42" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF42" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG42" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM42" s="10"/>
+    </row>
+    <row r="43" spans="1:41">
+      <c r="A43" s="115">
+        <v>40</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="48"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="47"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="47" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
       <c r="AC43" s="47"/>
       <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AE43" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF43" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG43" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM43" s="10"/>
+    </row>
+    <row r="44" spans="1:41" ht="38.25" customHeight="1">
+      <c r="A44" s="115">
+        <v>41</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="48"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="47"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="47"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
       <c r="AC44" s="47"/>
       <c r="AD44" s="47"/>
-      <c r="AE44" s="47"/>
-    </row>
-    <row r="45" spans="1:33">
+      <c r="AE44" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF44" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG44" s="55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="115">
+        <v>42</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="48"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="47"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
       <c r="AC45" s="47"/>
       <c r="AD45" s="47"/>
-      <c r="AE45" s="47"/>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AE45" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF45" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG45" s="55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
+      <c r="A46" s="115">
+        <v>43</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="48"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="47"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="47"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
       <c r="AC46" s="47"/>
       <c r="AD46" s="47"/>
-      <c r="AE46" s="47"/>
-    </row>
-    <row r="47" spans="1:33">
+      <c r="AE46" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF46" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG46" s="55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
+      <c r="A47" s="115">
+        <v>44</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="48"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="47"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
       <c r="AC47" s="47"/>
       <c r="AD47" s="47"/>
-      <c r="AE47" s="47"/>
-    </row>
-    <row r="48" spans="1:33">
+      <c r="AE47" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF47" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG47" s="55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
+      <c r="A48" s="115">
+        <v>45</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="48"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="47"/>
+      <c r="AA48" s="47"/>
+      <c r="AB48" s="47"/>
       <c r="AC48" s="47"/>
       <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-    </row>
-    <row r="49" spans="29:31">
+      <c r="AE48" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF48" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG48" s="55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
+      <c r="A49" s="115">
+        <v>46</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="48"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N49" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="47"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
       <c r="AC49" s="47"/>
       <c r="AD49" s="47"/>
-      <c r="AE49" s="47"/>
-    </row>
-    <row r="50" spans="29:31">
+      <c r="AE49" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF49" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG49" s="55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50" s="115">
+        <v>47</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="48"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="47"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="47"/>
+      <c r="AA50" s="47"/>
+      <c r="AB50" s="47"/>
       <c r="AC50" s="47"/>
       <c r="AD50" s="47"/>
-      <c r="AE50" s="47"/>
-    </row>
-    <row r="51" spans="29:31">
-      <c r="AC51" s="47"/>
-      <c r="AD51" s="47"/>
-      <c r="AE51" s="47"/>
-    </row>
-    <row r="52" spans="29:31">
+      <c r="AE50" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF50" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG50" s="55" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="15" customFormat="1">
+      <c r="A51" s="115">
+        <v>48</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51" s="61"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" s="51"/>
+      <c r="W51" s="49" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="49"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF51" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG51" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52" s="115">
+        <v>49</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="60"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" s="48"/>
+      <c r="W52" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="47"/>
+      <c r="AA52" s="47"/>
+      <c r="AB52" s="47"/>
       <c r="AC52" s="47"/>
       <c r="AD52" s="47"/>
-      <c r="AE52" s="47"/>
-    </row>
-    <row r="53" spans="29:31">
+      <c r="AE52" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF52" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG52" s="55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53" s="115">
+        <v>50</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="48"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="60"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="47" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V53" s="48"/>
+      <c r="W53" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="47"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
       <c r="AC53" s="47"/>
       <c r="AD53" s="47"/>
-      <c r="AE53" s="47"/>
-    </row>
-    <row r="54" spans="29:31">
+      <c r="AE53" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF53" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG53" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54" s="115">
+        <v>51</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="48"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N54" s="60"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="48"/>
+      <c r="W54" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="47"/>
+      <c r="AA54" s="47"/>
+      <c r="AB54" s="47"/>
       <c r="AC54" s="47"/>
       <c r="AD54" s="47"/>
-      <c r="AE54" s="47"/>
-    </row>
-    <row r="55" spans="29:31">
+      <c r="AE54" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF54" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG54" s="55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" s="115">
+        <v>52</v>
+      </c>
+      <c r="B55" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="48"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="47"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="60"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V55" s="48"/>
+      <c r="W55" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="47"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
       <c r="AC55" s="47"/>
       <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-    </row>
-    <row r="56" spans="29:31">
+      <c r="AE55" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF55" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG55" s="55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56" s="115">
+        <v>53</v>
+      </c>
+      <c r="B56" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="48"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="60"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V56" s="48"/>
+      <c r="W56" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="47"/>
+      <c r="AA56" s="47"/>
+      <c r="AB56" s="47"/>
       <c r="AC56" s="47"/>
       <c r="AD56" s="47"/>
-      <c r="AE56" s="47"/>
-    </row>
-    <row r="57" spans="29:31">
+      <c r="AE56" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF56" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG56" s="55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" s="115">
+        <v>54</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="48"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="60"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V57" s="48"/>
+      <c r="W57" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="47"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
       <c r="AC57" s="47"/>
       <c r="AD57" s="47"/>
-      <c r="AE57" s="47"/>
-    </row>
-    <row r="58" spans="29:31">
+      <c r="AE57" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF57" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG57" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="37" customFormat="1">
+      <c r="A58" s="115">
+        <v>55</v>
+      </c>
+      <c r="B58" s="58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" s="60"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
       <c r="AC58" s="47"/>
       <c r="AD58" s="47"/>
-      <c r="AE58" s="47"/>
-    </row>
-    <row r="59" spans="29:31">
+      <c r="AE58" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF58" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG58" s="55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59" s="115">
+        <v>56</v>
+      </c>
+      <c r="B59" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="48"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N59" s="60"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="47" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V59" s="48"/>
+      <c r="W59" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="47"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
       <c r="AC59" s="47"/>
       <c r="AD59" s="47"/>
-      <c r="AE59" s="47"/>
-    </row>
-    <row r="60" spans="29:31">
+      <c r="AE59" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF59" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG59" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60" s="115">
+        <v>57</v>
+      </c>
+      <c r="B60" s="58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="48"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="47" t="s">
+        <v>1186</v>
+      </c>
+      <c r="V60" s="48"/>
+      <c r="W60" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X60" s="48"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="47"/>
+      <c r="AB60" s="47"/>
       <c r="AC60" s="47"/>
       <c r="AD60" s="47"/>
-      <c r="AE60" s="47"/>
-    </row>
-    <row r="61" spans="29:31">
+      <c r="AE60" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF60" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG60" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61" s="115">
+        <v>58</v>
+      </c>
+      <c r="B61" s="58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="48"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="60"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="47"/>
+      <c r="V61" s="48"/>
+      <c r="W61" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X61" s="48"/>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
       <c r="AC61" s="47"/>
       <c r="AD61" s="47"/>
-      <c r="AE61" s="47"/>
-    </row>
-    <row r="62" spans="29:31">
+      <c r="AE61" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF61" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG61" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="A62" s="115">
+        <v>59</v>
+      </c>
+      <c r="B62" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="48"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="60"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="47"/>
+      <c r="T62" s="47"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="48"/>
+      <c r="W62" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X62" s="48"/>
+      <c r="Y62" s="46"/>
+      <c r="Z62" s="47"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="47"/>
       <c r="AC62" s="47"/>
       <c r="AD62" s="47"/>
-      <c r="AE62" s="47"/>
-    </row>
-    <row r="63" spans="29:31">
+      <c r="AE62" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF62" s="46"/>
+      <c r="AG62" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63" s="115">
+        <v>60</v>
+      </c>
+      <c r="B63" s="58" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="48"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63" s="60"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="47"/>
+      <c r="T63" s="47"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="48"/>
+      <c r="W63" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="47"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
       <c r="AC63" s="47"/>
       <c r="AD63" s="47"/>
-      <c r="AE63" s="47"/>
-    </row>
-    <row r="64" spans="29:31">
+      <c r="AE63" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="A64" s="115">
+        <v>61</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="48"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N64" s="60"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="47"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="48"/>
+      <c r="W64" s="46" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X64" s="48"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="47"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="47"/>
       <c r="AC64" s="47"/>
       <c r="AD64" s="47"/>
-      <c r="AE64" s="47"/>
-    </row>
-    <row r="65" spans="29:31">
+      <c r="AE64" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF64" s="46"/>
+      <c r="AG64" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41">
+      <c r="A65" s="115">
+        <v>62</v>
+      </c>
+      <c r="B65" s="58" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="48"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" s="112"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="47"/>
+      <c r="T65" s="47"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="48"/>
+      <c r="W65" s="47" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X65" s="48"/>
+      <c r="Y65" s="47"/>
+      <c r="Z65" s="47"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
       <c r="AC65" s="47"/>
       <c r="AD65" s="47"/>
-      <c r="AE65" s="47"/>
-    </row>
-    <row r="66" spans="29:31">
-      <c r="AC66" s="47"/>
-      <c r="AD66" s="47"/>
-      <c r="AE66" s="47"/>
-    </row>
-    <row r="67" spans="29:31">
+      <c r="AE65" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41">
+      <c r="A66" s="115">
+        <v>63</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="N66" s="62"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="52" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X66" s="54"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="53"/>
+      <c r="AA66" s="53"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="53"/>
+      <c r="AD66" s="53"/>
+      <c r="AE66" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF66" s="57"/>
+      <c r="AG66" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI66" s="47"/>
+      <c r="AJ66" s="47"/>
+      <c r="AK66" s="47"/>
+      <c r="AL66" s="47"/>
+      <c r="AM66" s="67"/>
+      <c r="AN66" s="47"/>
+      <c r="AO66" s="47"/>
+    </row>
+    <row r="67" spans="1:41">
       <c r="AC67" s="47"/>
       <c r="AD67" s="47"/>
       <c r="AE67" s="47"/>
     </row>
-    <row r="68" spans="29:31">
+    <row r="68" spans="1:41">
+      <c r="B68" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
       <c r="AC68" s="47"/>
       <c r="AD68" s="47"/>
       <c r="AE68" s="47"/>
     </row>
-    <row r="69" spans="29:31">
+    <row r="69" spans="1:41">
+      <c r="B69" s="40"/>
+      <c r="C69" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="40"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
       <c r="AC69" s="47"/>
       <c r="AD69" s="47"/>
       <c r="AE69" s="47"/>
     </row>
-    <row r="70" spans="29:31">
+    <row r="70" spans="1:41">
       <c r="AC70" s="47"/>
       <c r="AD70" s="47"/>
       <c r="AE70" s="47"/>
     </row>
-    <row r="71" spans="29:31">
+    <row r="71" spans="1:41">
       <c r="AC71" s="47"/>
       <c r="AD71" s="47"/>
       <c r="AE71" s="47"/>
     </row>
-    <row r="72" spans="29:31">
+    <row r="72" spans="1:41">
       <c r="AC72" s="47"/>
       <c r="AD72" s="47"/>
       <c r="AE72" s="47"/>
     </row>
-    <row r="73" spans="29:31">
+    <row r="73" spans="1:41">
       <c r="AC73" s="47"/>
       <c r="AD73" s="47"/>
       <c r="AE73" s="47"/>
     </row>
-    <row r="74" spans="29:31">
+    <row r="74" spans="1:41">
       <c r="AC74" s="47"/>
       <c r="AD74" s="47"/>
       <c r="AE74" s="47"/>
     </row>
-    <row r="75" spans="29:31">
+    <row r="75" spans="1:41">
       <c r="AC75" s="47"/>
       <c r="AD75" s="47"/>
       <c r="AE75" s="47"/>
     </row>
-    <row r="76" spans="29:31">
+    <row r="76" spans="1:41">
       <c r="AC76" s="47"/>
       <c r="AD76" s="47"/>
       <c r="AE76" s="47"/>
     </row>
-    <row r="77" spans="29:31">
+    <row r="77" spans="1:41">
       <c r="AC77" s="47"/>
       <c r="AD77" s="47"/>
       <c r="AE77" s="47"/>
     </row>
-    <row r="78" spans="29:31">
+    <row r="78" spans="1:41">
       <c r="AC78" s="47"/>
       <c r="AD78" s="47"/>
       <c r="AE78" s="47"/>
     </row>
-    <row r="79" spans="29:31">
+    <row r="79" spans="1:41">
       <c r="AC79" s="47"/>
       <c r="AD79" s="47"/>
       <c r="AE79" s="47"/>
     </row>
-    <row r="80" spans="29:31">
+    <row r="80" spans="1:41">
       <c r="AC80" s="47"/>
       <c r="AD80" s="47"/>
       <c r="AE80" s="47"/>
@@ -10122,7 +11727,8 @@
       <c r="AE126" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="Y1:AD1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="N1:P1"/>
@@ -10132,7 +11738,7 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="R1:V1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10295,10 +11901,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10421,102 +12027,102 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="93"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>169</v>
       </c>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
       <c r="W10" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="93" customFormat="1" ht="42.75">
-      <c r="B11" s="93" t="s">
+    <row r="11" spans="1:24" s="91" customFormat="1" ht="42.75">
+      <c r="B11" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="J11" s="94" t="s">
+      <c r="J11" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="94" t="s">
+      <c r="K11" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="L11" s="94" t="s">
+      <c r="L11" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="N11" s="94" t="s">
+      <c r="N11" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="O11" s="94" t="s">
+      <c r="O11" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="P11" s="93" t="s">
+      <c r="P11" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="Q11" s="93" t="s">
+      <c r="Q11" s="91" t="s">
         <v>1143</v>
       </c>
-      <c r="R11" s="93" t="s">
+      <c r="R11" s="91" t="s">
         <v>1144</v>
       </c>
-      <c r="S11" s="93" t="s">
+      <c r="S11" s="91" t="s">
         <v>1145</v>
       </c>
-      <c r="W11" s="93" t="s">
+      <c r="W11" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="X11" s="93" t="s">
+      <c r="X11" s="91" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="B12" s="95">
+      <c r="B12" s="93">
         <v>43034.396087962959</v>
       </c>
       <c r="C12" t="s">
@@ -10528,35 +12134,35 @@
       <c r="E12" t="s">
         <v>1147</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="92" t="s">
         <v>1148</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="92">
         <v>0.5</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="92" t="s">
         <v>1149</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94">
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92">
         <v>1</v>
       </c>
-      <c r="N12" s="96" t="s">
+      <c r="N12" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="O12" s="96" t="s">
+      <c r="O12" s="94" t="s">
         <v>1150</v>
       </c>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
     </row>
     <row r="13" spans="1:24">
       <c r="G13" s="13"/>
@@ -10568,13 +12174,13 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
@@ -10666,6 +12272,19 @@
       </c>
       <c r="L29" t="s">
         <v>1169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="B32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1176</v>
       </c>
     </row>
   </sheetData>
@@ -10676,10 +12295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10687,821 +12306,922 @@
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="23" customWidth="1"/>
-    <col min="5" max="5" width="40.625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="36.875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="23" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="36.875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="35" customFormat="1">
+    <row r="2" spans="1:10" s="35" customFormat="1">
       <c r="B2" s="77" t="s">
         <v>273</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="78" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E2" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="G2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="H2" s="81" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="I2" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="J2" s="81" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="27" customFormat="1" ht="59.25" customHeight="1">
+    <row r="3" spans="1:10" s="27" customFormat="1" ht="59.25" customHeight="1">
       <c r="A3" s="26"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="110" t="s">
         <v>279</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="17">
+      <c r="H3" s="17">
         <v>18</v>
       </c>
-      <c r="H3" s="17">
+      <c r="I3" s="17">
         <v>60</v>
       </c>
-      <c r="I3" s="17">
+      <c r="J3" s="17">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" ht="28.5">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="28.5">
       <c r="A4" s="28"/>
-      <c r="B4" s="109"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="95" t="s">
+        <v>1178</v>
+      </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="57">
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="57">
       <c r="A5" s="28"/>
-      <c r="B5" s="109"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" ht="213.75">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="213.75">
       <c r="A6" s="28"/>
-      <c r="B6" s="109"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="97" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="18">
+      <c r="H6" s="18">
         <v>0.7</v>
       </c>
-      <c r="H6" s="18">
+      <c r="I6" s="18">
         <v>0.75</v>
       </c>
-      <c r="I6" s="18">
+      <c r="J6" s="18">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" ht="128.25">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="128.25">
       <c r="A7" s="28"/>
-      <c r="B7" s="109"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="18">
+      <c r="G7" s="6"/>
+      <c r="H7" s="18">
         <v>0.4</v>
       </c>
-      <c r="H7" s="18">
+      <c r="I7" s="18">
         <v>0.6</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="114">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="114">
       <c r="A8" s="28"/>
-      <c r="B8" s="109"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17">
+      <c r="G8" s="6"/>
+      <c r="H8" s="17">
         <v>3</v>
       </c>
-      <c r="H8" s="17">
+      <c r="I8" s="17">
         <v>6</v>
       </c>
-      <c r="I8" s="21">
+      <c r="J8" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" ht="114">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="114">
       <c r="A9" s="28"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="110"/>
+      <c r="C9" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17">
+      <c r="G9" s="6"/>
+      <c r="H9" s="17">
         <v>3</v>
       </c>
-      <c r="H9" s="17">
+      <c r="I9" s="17">
         <v>6</v>
       </c>
-      <c r="I9" s="21">
+      <c r="J9" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="30" customFormat="1" ht="28.5">
+    <row r="10" spans="1:10" s="30" customFormat="1" ht="28.5">
       <c r="A10" s="29"/>
-      <c r="B10" s="109"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="17">
+      <c r="H10" s="17">
         <v>3</v>
       </c>
-      <c r="H10" s="17">
+      <c r="I10" s="17">
         <v>5</v>
       </c>
-      <c r="I10" s="21">
+      <c r="J10" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.5">
-      <c r="B11" s="109" t="s">
+    <row r="11" spans="1:10" ht="28.5">
+      <c r="B11" s="110" t="s">
         <v>283</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="F11" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="G11" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.5">
-      <c r="B12" s="109"/>
+    <row r="12" spans="1:10" ht="28.5">
+      <c r="B12" s="110"/>
       <c r="C12" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="24" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="I12" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42.75">
-      <c r="B13" s="109"/>
+    <row r="13" spans="1:10" ht="42.75">
+      <c r="B13" s="110"/>
       <c r="C13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="17">
+      <c r="H13" s="17">
         <v>3</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I13" s="17">
         <v>5</v>
       </c>
-      <c r="I13" s="21">
+      <c r="J13" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42.75">
-      <c r="B14" s="109"/>
+    <row r="14" spans="1:10" ht="42.75">
+      <c r="B14" s="110"/>
       <c r="C14" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="17">
+      <c r="H14" s="17">
         <v>3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="I14" s="17">
         <v>5</v>
       </c>
-      <c r="I14" s="21">
+      <c r="J14" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="109"/>
+    <row r="15" spans="1:10">
+      <c r="B15" s="110"/>
       <c r="C15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="22" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="17">
+      <c r="H15" s="17">
         <v>10</v>
       </c>
-      <c r="H15" s="17">
+      <c r="I15" s="17">
         <v>20</v>
       </c>
-      <c r="I15" s="21">
+      <c r="J15" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="128.25">
-      <c r="B16" s="109" t="s">
+    <row r="16" spans="1:10" ht="128.25">
+      <c r="B16" s="110" t="s">
         <v>287</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="114">
-      <c r="B17" s="109"/>
+    <row r="17" spans="2:10" ht="114">
+      <c r="B17" s="110"/>
       <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G17" s="18">
+      <c r="H17" s="18">
         <v>0.3</v>
       </c>
-      <c r="H17" s="18">
+      <c r="I17" s="18">
         <v>0.5</v>
       </c>
-      <c r="I17" s="20">
+      <c r="J17" s="20">
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="128.25">
-      <c r="B18" s="109"/>
+    <row r="18" spans="2:10" ht="128.25">
+      <c r="B18" s="110"/>
       <c r="C18" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="42.75">
-      <c r="B19" s="109"/>
+    <row r="19" spans="2:10" ht="128.25">
+      <c r="B19" s="110"/>
       <c r="C19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="95" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="H19" s="18">
         <v>0.2</v>
       </c>
-      <c r="H19" s="18">
+      <c r="I19" s="18">
         <v>0.4</v>
       </c>
-      <c r="I19" s="20">
+      <c r="J19" s="20">
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="28.5">
-      <c r="B20" s="109"/>
+    <row r="20" spans="2:10" ht="28.5">
+      <c r="B20" s="110"/>
       <c r="C20" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="17">
+      <c r="H20" s="17">
         <v>20</v>
       </c>
-      <c r="H20" s="17">
+      <c r="I20" s="17">
         <v>40</v>
       </c>
-      <c r="I20" s="21">
+      <c r="J20" s="21">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="57">
-      <c r="B21" s="109"/>
+    <row r="21" spans="2:10" ht="57">
+      <c r="B21" s="110"/>
       <c r="C21" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="18">
+      <c r="H21" s="18">
         <v>0.5</v>
       </c>
-      <c r="H21" s="18">
+      <c r="I21" s="18">
         <v>0.75</v>
       </c>
-      <c r="I21" s="20">
+      <c r="J21" s="20">
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="42.75">
-      <c r="B22" s="109" t="s">
+    <row r="22" spans="2:10" ht="42.75">
+      <c r="B22" s="110" t="s">
         <v>289</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="18">
+      <c r="H22" s="18">
         <v>0.08</v>
       </c>
-      <c r="H22" s="18">
+      <c r="I22" s="18">
         <v>0.12</v>
       </c>
-      <c r="I22" s="20">
+      <c r="J22" s="20">
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="57">
-      <c r="B23" s="109"/>
+    <row r="23" spans="2:10" ht="57">
+      <c r="B23" s="110"/>
       <c r="C23" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="18">
+      <c r="H23" s="18">
         <v>0.3</v>
       </c>
-      <c r="H23" s="18">
+      <c r="I23" s="18">
         <v>0.5</v>
       </c>
-      <c r="I23" s="20">
+      <c r="J23" s="20">
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="42.75">
-      <c r="B24" s="109"/>
+    <row r="24" spans="2:10" ht="42.75">
+      <c r="B24" s="110"/>
       <c r="C24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="17">
+      <c r="H24" s="17">
         <v>3</v>
       </c>
-      <c r="H24" s="17">
+      <c r="I24" s="17">
         <v>5</v>
       </c>
-      <c r="I24" s="21">
+      <c r="J24" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="42.75">
-      <c r="B25" s="109"/>
+    <row r="25" spans="2:10" ht="42.75">
+      <c r="B25" s="110"/>
       <c r="C25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="17">
+      <c r="H25" s="17">
         <v>3</v>
       </c>
-      <c r="H25" s="17">
+      <c r="I25" s="17">
         <v>5</v>
       </c>
-      <c r="I25" s="21">
+      <c r="J25" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="42.75">
-      <c r="B26" s="109"/>
+    <row r="26" spans="2:10" ht="42.75">
+      <c r="B26" s="110"/>
       <c r="C26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="17">
+      <c r="H26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="17">
+      <c r="I26" s="17">
         <v>2</v>
       </c>
-      <c r="I26" s="21">
+      <c r="J26" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="28.5">
-      <c r="B27" s="109"/>
+    <row r="27" spans="2:10" ht="28.5">
+      <c r="B27" s="110"/>
       <c r="C27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="95" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="18">
+      <c r="H27" s="18">
         <v>0.02</v>
       </c>
-      <c r="H27" s="18">
+      <c r="I27" s="18">
         <v>0.04</v>
       </c>
-      <c r="I27" s="20">
+      <c r="J27" s="20">
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="42.75">
-      <c r="B28" s="109"/>
+    <row r="28" spans="2:10" ht="42.75">
+      <c r="B28" s="110"/>
       <c r="C28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="95" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="17">
+      <c r="H28" s="17">
         <v>2</v>
       </c>
-      <c r="H28" s="17">
+      <c r="I28" s="17">
         <v>4</v>
       </c>
-      <c r="I28" s="21">
+      <c r="J28" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="42.75">
-      <c r="B29" s="109"/>
+    <row r="29" spans="2:10" ht="42.75">
+      <c r="B29" s="110"/>
       <c r="C29" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="97" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="18">
+      <c r="H29" s="18">
         <v>0.3</v>
       </c>
-      <c r="H29" s="18">
+      <c r="I29" s="18">
         <v>0.4</v>
       </c>
-      <c r="I29" s="20">
+      <c r="J29" s="20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="28.5">
-      <c r="B30" s="109" t="s">
+    <row r="30" spans="2:10" ht="28.5">
+      <c r="B30" s="110" t="s">
         <v>290</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="97" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="17">
+      <c r="H30" s="17">
         <v>2</v>
       </c>
-      <c r="H30" s="17">
+      <c r="I30" s="17">
         <v>4</v>
       </c>
-      <c r="I30" s="21">
+      <c r="J30" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="109"/>
+    <row r="31" spans="2:10">
+      <c r="B31" s="110"/>
       <c r="C31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="95" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="21">
+      <c r="H31" s="21">
         <v>1</v>
       </c>
-      <c r="H31" s="21">
+      <c r="I31" s="21">
         <v>2</v>
       </c>
-      <c r="I31" s="21">
+      <c r="J31" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="109"/>
+    <row r="32" spans="2:10">
+      <c r="B32" s="110"/>
       <c r="C32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="96" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="21">
+      <c r="H32" s="21">
         <v>1</v>
       </c>
-      <c r="H32" s="21">
+      <c r="I32" s="21">
         <v>2</v>
       </c>
-      <c r="I32" s="21">
+      <c r="J32" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="28.5">
-      <c r="B33" s="109"/>
+    <row r="33" spans="2:10" ht="28.5">
+      <c r="B33" s="110"/>
       <c r="C33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="96" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="21">
+      <c r="H33" s="21">
         <v>1</v>
       </c>
-      <c r="H33" s="21">
+      <c r="I33" s="21">
         <v>2</v>
       </c>
-      <c r="I33" s="21">
+      <c r="J33" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="108" t="s">
+    <row r="34" spans="2:10">
+      <c r="B34" s="109" t="s">
         <v>291</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="96" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="21">
+      <c r="H34" s="21">
         <v>1</v>
       </c>
-      <c r="H34" s="21"/>
       <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="108"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="109"/>
       <c r="C35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="96" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G35" s="21">
+      <c r="H35" s="21">
         <v>1</v>
       </c>
-      <c r="H35" s="21"/>
       <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12494,7 +14214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -12509,197 +14229,197 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="89" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="89" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="89" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="89" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.5" customHeight="1">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.5" customHeight="1">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.5" customHeight="1">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="90" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="90" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="90" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="90" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="90" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="90" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="90" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="90" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="90" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="90" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="90" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="90" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="90" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="90" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="90" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="90" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="90" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="90" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="90" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="90" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="90" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="90" t="s">
         <v>1122</v>
       </c>
     </row>

--- a/03.指标管理/大宗/指标v1.0.3.xlsx
+++ b/03.指标管理/大宗/指标v1.0.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="734" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="大宗类指标" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1236">
   <si>
     <t>机构数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7117,6 +7117,38 @@
   <si>
     <t>√</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉淀资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险事件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8237,11 +8269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11171,9 +11203,7 @@
       <c r="N60" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="60" t="s">
-        <v>10</v>
-      </c>
+      <c r="O60" s="60"/>
       <c r="Q60" s="48"/>
       <c r="R60" s="48"/>
       <c r="S60" s="46"/>
@@ -12118,16 +12148,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.375" customWidth="1"/>
     <col min="13" max="13" width="6.75" customWidth="1"/>
@@ -12558,7 +12589,36 @@
     </row>
     <row r="38" spans="1:13">
       <c r="B38" t="s">
-        <v>1219</v>
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
@@ -12584,7 +12644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -14721,7 +14781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>

--- a/03.指标管理/大宗/指标v1.0.3.xlsx
+++ b/03.指标管理/大宗/指标v1.0.3.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="1242">
   <si>
     <t>机构数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7140,6 +7140,30 @@
   </si>
   <si>
     <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -12148,10 +12172,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12543,9 +12567,12 @@
       <c r="A34" t="s">
         <v>1222</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="104" t="s">
         <v>1213</v>
       </c>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
     </row>
     <row r="35" spans="1:13">
       <c r="B35" t="s">
@@ -12569,16 +12596,16 @@
       <c r="H35" t="s">
         <v>1221</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="104">
         <v>1</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="104" t="s">
         <v>1223</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="104" t="s">
         <v>1224</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="104" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -12618,7 +12645,24 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>1230</v>
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1241</v>
       </c>
     </row>
   </sheetData>
